--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_23_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_23_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2629312.615095453</v>
+        <v>-2629979.411215702</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4795783.348386016</v>
+        <v>4795783.348386017</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15373593.08385468</v>
+        <v>15373593.08385467</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.723669634030273</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="F11" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>56.32389120426608</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>35.89105811681803</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>22.58881163589415</v>
       </c>
       <c r="T11" t="n">
-        <v>17.76019284593452</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>45.49679044823577</v>
+        <v>45.49679044823585</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>10.29207558827159</v>
+        <v>10.29207558827168</v>
       </c>
       <c r="U12" t="n">
-        <v>32.57485987793721</v>
+        <v>32.5748598779373</v>
       </c>
       <c r="V12" t="n">
-        <v>35.9961367123513</v>
+        <v>35.99613671235139</v>
       </c>
       <c r="W12" t="n">
-        <v>62.05179937396065</v>
+        <v>62.05179937396073</v>
       </c>
       <c r="X12" t="n">
-        <v>12.66013023641966</v>
+        <v>12.66013023641975</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.73150193097467</v>
+        <v>18.73150193097476</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>30.69078435787955</v>
+        <v>30.69078435787964</v>
       </c>
       <c r="T13" t="n">
-        <v>19.08561116512938</v>
+        <v>19.08561116512946</v>
       </c>
       <c r="U13" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="V13" t="n">
-        <v>40.45623098139896</v>
+        <v>40.45623098139905</v>
       </c>
       <c r="W13" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="X13" t="n">
-        <v>17.26667120519159</v>
+        <v>17.26667120519167</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.48848861111748</v>
+        <v>12.48848861111756</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.32940196544845</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="G14" t="n">
-        <v>82.66266089709396</v>
+        <v>72.80927171816033</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>35.89105811681794</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.58881163589398</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
     </row>
     <row r="15">
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10.29207558827151</v>
+        <v>10.29207558827157</v>
       </c>
       <c r="U15" t="n">
-        <v>32.57485987793713</v>
+        <v>32.57485987793719</v>
       </c>
       <c r="V15" t="n">
-        <v>35.99613671235122</v>
+        <v>35.99613671235127</v>
       </c>
       <c r="W15" t="n">
-        <v>62.05179937396056</v>
+        <v>62.05179937396062</v>
       </c>
       <c r="X15" t="n">
-        <v>12.66013023641958</v>
+        <v>12.66013023641963</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.73150193097459</v>
+        <v>18.73150193097464</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>30.69078435787947</v>
+        <v>30.69078435787953</v>
       </c>
       <c r="T16" t="n">
-        <v>19.08561116512929</v>
+        <v>19.08561116512935</v>
       </c>
       <c r="U16" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="V16" t="n">
-        <v>40.45623098139887</v>
+        <v>40.45623098139893</v>
       </c>
       <c r="W16" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="X16" t="n">
-        <v>17.2666712051915</v>
+        <v>17.26667120519156</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.48848861111739</v>
+        <v>12.48848861111745</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37.92381382931671</v>
+        <v>37.92381382931677</v>
       </c>
       <c r="C17" t="n">
-        <v>14.0420708326622</v>
+        <v>14.04207083266226</v>
       </c>
       <c r="D17" t="n">
-        <v>1.608733093710972</v>
+        <v>1.608733093710725</v>
       </c>
       <c r="E17" t="n">
-        <v>35.31548551311954</v>
+        <v>35.3154855131196</v>
       </c>
       <c r="F17" t="n">
-        <v>67.03582309149687</v>
+        <v>67.03582309149692</v>
       </c>
       <c r="G17" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="H17" t="n">
-        <v>10.73420125866866</v>
+        <v>10.73420125866872</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.733037277250276</v>
+        <v>1.733037277250332</v>
       </c>
       <c r="X17" t="n">
-        <v>23.61928774618951</v>
+        <v>23.61928774618957</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.12214086993328</v>
+        <v>46.12214086993333</v>
       </c>
     </row>
     <row r="18">
@@ -2090,10 +2090,10 @@
         <v>35.31548551311954</v>
       </c>
       <c r="F20" t="n">
-        <v>67.03582309149687</v>
+        <v>67.03582309149779</v>
       </c>
       <c r="G20" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="H20" t="n">
         <v>10.73420125866863</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.044035583042486</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,19 +2685,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.099381123127963</v>
+        <v>214.9448597913225</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2276440809881</v>
+        <v>95.24657779430113</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.80344224720767</v>
       </c>
       <c r="W27" t="n">
-        <v>53.85910490881702</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>69.28781256974037</v>
+        <v>4.46743577127603</v>
       </c>
       <c r="Y27" t="n">
         <v>10.53880746583104</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.2417617096388</v>
+        <v>161.2417617096389</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3600187129843</v>
+        <v>137.3600187129844</v>
       </c>
       <c r="D29" t="n">
         <v>124.9266809740328</v>
@@ -2810,7 +2810,7 @@
         <v>134.0521491389908</v>
       </c>
       <c r="I29" t="n">
-        <v>27.6983636516745</v>
+        <v>27.69836365167453</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39611717075052</v>
+        <v>14.39611717075054</v>
       </c>
       <c r="T29" t="n">
-        <v>9.567498380790967</v>
+        <v>9.567498380790996</v>
       </c>
       <c r="U29" t="n">
-        <v>37.30409598309222</v>
+        <v>37.30409598309225</v>
       </c>
       <c r="V29" t="n">
-        <v>108.0343049409575</v>
+        <v>108.0343049409576</v>
       </c>
       <c r="W29" t="n">
         <v>125.0509851575724</v>
       </c>
       <c r="X29" t="n">
-        <v>146.9372356265116</v>
+        <v>146.9372356265117</v>
       </c>
       <c r="Y29" t="n">
         <v>169.4400887502554</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.044035583042486</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.099381123128048</v>
+        <v>72.96379350464007</v>
       </c>
       <c r="U30" t="n">
-        <v>24.38216541279367</v>
+        <v>24.3821654127937</v>
       </c>
       <c r="V30" t="n">
-        <v>27.80344224720776</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>69.28781256974304</v>
+        <v>4.467435771276143</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>10.53880746583116</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.49808989273601</v>
+        <v>22.49808989273604</v>
       </c>
       <c r="T31" t="n">
-        <v>10.89291669998583</v>
+        <v>10.89291669998586</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81078260145014</v>
+        <v>75.81078260145017</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26353651625541</v>
+        <v>32.26353651625544</v>
       </c>
       <c r="W31" t="n">
-        <v>77.46522842114084</v>
+        <v>77.46522842114086</v>
       </c>
       <c r="X31" t="n">
-        <v>9.073976740048039</v>
+        <v>9.073976740048067</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.295794145973929</v>
+        <v>4.295794145973957</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.2417617096387</v>
+        <v>161.2417617096388</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3600187129842</v>
+        <v>137.3600187129843</v>
       </c>
       <c r="D32" t="n">
-        <v>124.9266809740327</v>
+        <v>124.9266809740328</v>
       </c>
       <c r="E32" t="n">
-        <v>158.6334333934415</v>
+        <v>158.6334333934416</v>
       </c>
       <c r="F32" t="n">
-        <v>190.3537709718189</v>
+        <v>190.353770971819</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9806087774159</v>
+        <v>205.980608777416</v>
       </c>
       <c r="H32" t="n">
-        <v>134.0521491389906</v>
+        <v>134.0521491389907</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69836365167438</v>
+        <v>27.69836365167447</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39611717075041</v>
+        <v>14.39611717075047</v>
       </c>
       <c r="T32" t="n">
-        <v>9.567498380790852</v>
+        <v>9.567498380790937</v>
       </c>
       <c r="U32" t="n">
-        <v>37.30409598309211</v>
+        <v>37.3040959830922</v>
       </c>
       <c r="V32" t="n">
-        <v>108.0343049409574</v>
+        <v>108.0343049409575</v>
       </c>
       <c r="W32" t="n">
-        <v>125.0509851575723</v>
+        <v>125.0509851575724</v>
       </c>
       <c r="X32" t="n">
-        <v>146.9372356265115</v>
+        <v>146.9372356265116</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.4400887502553</v>
+        <v>169.4400887502554</v>
       </c>
     </row>
     <row r="33">
@@ -3108,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>138.5452314650184</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.044035583042486</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.099381123127934</v>
+        <v>2.099381123128019</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38216541279355</v>
+        <v>24.38216541279364</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.80344224720773</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.85910490881707</v>
       </c>
       <c r="X33" t="n">
-        <v>69.28781256973892</v>
+        <v>4.467435771276087</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.53880746583101</v>
+        <v>10.5388074658311</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.49808989273589</v>
+        <v>22.49808989273598</v>
       </c>
       <c r="T34" t="n">
-        <v>10.89291669998572</v>
+        <v>10.8929166999858</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81078260145003</v>
+        <v>75.81078260145011</v>
       </c>
       <c r="V34" t="n">
-        <v>32.2635365162553</v>
+        <v>32.26353651625539</v>
       </c>
       <c r="W34" t="n">
-        <v>77.46522842114072</v>
+        <v>77.46522842114081</v>
       </c>
       <c r="X34" t="n">
-        <v>9.073976740047925</v>
+        <v>9.07397674004801</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.295794145973815</v>
+        <v>4.2957941459739</v>
       </c>
     </row>
     <row r="35">
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>14.47073914786903</v>
+        <v>14.47073914786904</v>
       </c>
       <c r="V38" t="n">
         <v>85.20094810573434</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>138.4084048744157</v>
+        <v>138.4084048744156</v>
       </c>
       <c r="C41" t="n">
-        <v>114.5266618777612</v>
+        <v>114.5266618777611</v>
       </c>
       <c r="D41" t="n">
-        <v>102.0933241388097</v>
+        <v>102.0933241388096</v>
       </c>
       <c r="E41" t="n">
-        <v>135.8000765582185</v>
+        <v>135.8000765582184</v>
       </c>
       <c r="F41" t="n">
-        <v>167.5204141365959</v>
+        <v>167.5204141365958</v>
       </c>
       <c r="G41" t="n">
-        <v>183.1472519421929</v>
+        <v>183.1472519421928</v>
       </c>
       <c r="H41" t="n">
-        <v>111.2187923037676</v>
+        <v>111.2187923037675</v>
       </c>
       <c r="I41" t="n">
-        <v>4.86500681645137</v>
+        <v>4.865006816451285</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>14.4707391478691</v>
+        <v>14.47073914786901</v>
       </c>
       <c r="V41" t="n">
-        <v>85.2009481057344</v>
+        <v>85.20094810573431</v>
       </c>
       <c r="W41" t="n">
-        <v>102.2176283223493</v>
+        <v>102.2176283223492</v>
       </c>
       <c r="X41" t="n">
-        <v>124.1038787912885</v>
+        <v>124.1038787912884</v>
       </c>
       <c r="Y41" t="n">
-        <v>146.6067319150323</v>
+        <v>146.6067319150322</v>
       </c>
     </row>
     <row r="42">
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>1.54880857757054</v>
+        <v>1.548808577570454</v>
       </c>
       <c r="V42" t="n">
-        <v>4.970085411984627</v>
+        <v>4.970085411984542</v>
       </c>
       <c r="W42" t="n">
-        <v>31.02574807359397</v>
+        <v>31.02574807359389</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.97742576622701</v>
+        <v>52.97742576622693</v>
       </c>
       <c r="V43" t="n">
-        <v>9.430179681032286</v>
+        <v>9.4301796810322</v>
       </c>
       <c r="W43" t="n">
-        <v>54.63187158591771</v>
+        <v>54.63187158591762</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,25 +3977,25 @@
         <v>138.4084048744157</v>
       </c>
       <c r="C44" t="n">
-        <v>114.5266618777612</v>
+        <v>114.5266618777611</v>
       </c>
       <c r="D44" t="n">
-        <v>102.0933241388097</v>
+        <v>102.0933241388096</v>
       </c>
       <c r="E44" t="n">
         <v>135.8000765582185</v>
       </c>
       <c r="F44" t="n">
-        <v>167.5204141365959</v>
+        <v>167.5204141365958</v>
       </c>
       <c r="G44" t="n">
         <v>183.1472519421929</v>
       </c>
       <c r="H44" t="n">
-        <v>111.2187923037677</v>
+        <v>111.2187923037676</v>
       </c>
       <c r="I44" t="n">
-        <v>4.86500681645137</v>
+        <v>4.865006816451313</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>14.47073914786909</v>
+        <v>14.47073914786903</v>
       </c>
       <c r="V44" t="n">
-        <v>85.2009481057344</v>
+        <v>85.20094810573434</v>
       </c>
       <c r="W44" t="n">
-        <v>102.2176283223493</v>
+        <v>102.2176283223492</v>
       </c>
       <c r="X44" t="n">
         <v>124.1038787912885</v>
       </c>
       <c r="Y44" t="n">
-        <v>146.6067319150323</v>
+        <v>146.6067319150322</v>
       </c>
     </row>
     <row r="45">
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1.54880857757054</v>
+        <v>1.548808577570483</v>
       </c>
       <c r="V45" t="n">
-        <v>4.970085411984627</v>
+        <v>4.97008541198457</v>
       </c>
       <c r="W45" t="n">
-        <v>31.02574807359397</v>
+        <v>31.02574807359392</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.97742576622701</v>
+        <v>52.97742576622696</v>
       </c>
       <c r="V46" t="n">
-        <v>9.430179681032286</v>
+        <v>9.430179681032229</v>
       </c>
       <c r="W46" t="n">
-        <v>54.63187158591771</v>
+        <v>54.63187158591765</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>266.7547008669918</v>
+        <v>94.88203361027686</v>
       </c>
       <c r="C11" t="n">
-        <v>266.7547008669918</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="D11" t="n">
-        <v>266.7547008669918</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="E11" t="n">
-        <v>183.2570635971999</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F11" t="n">
-        <v>99.75942632740802</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G11" t="n">
-        <v>42.86660692915947</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H11" t="n">
-        <v>42.86660692915947</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I11" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J11" t="n">
-        <v>6.613012871767516</v>
+        <v>25.74209161283698</v>
       </c>
       <c r="K11" t="n">
-        <v>6.613012871767516</v>
+        <v>107.57812590096</v>
       </c>
       <c r="L11" t="n">
-        <v>88.44904715989054</v>
+        <v>107.57812590096</v>
       </c>
       <c r="M11" t="n">
-        <v>170.2850814480136</v>
+        <v>107.57812590096</v>
       </c>
       <c r="N11" t="n">
-        <v>247.7478591123981</v>
+        <v>107.57812590096</v>
       </c>
       <c r="O11" t="n">
-        <v>329.5838934005211</v>
+        <v>189.4141601890831</v>
       </c>
       <c r="P11" t="n">
-        <v>329.5838934005211</v>
+        <v>271.2501944772062</v>
       </c>
       <c r="Q11" t="n">
-        <v>329.5838934005211</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="R11" t="n">
-        <v>330.6506435883758</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="S11" t="n">
-        <v>330.6506435883758</v>
+        <v>307.8336621379779</v>
       </c>
       <c r="T11" t="n">
-        <v>312.7110548551086</v>
+        <v>307.8336621379779</v>
       </c>
       <c r="U11" t="n">
-        <v>266.7547008669918</v>
+        <v>261.8773081498607</v>
       </c>
       <c r="V11" t="n">
-        <v>266.7547008669918</v>
+        <v>261.8773081498607</v>
       </c>
       <c r="W11" t="n">
-        <v>266.7547008669918</v>
+        <v>178.3796708800688</v>
       </c>
       <c r="X11" t="n">
-        <v>266.7547008669918</v>
+        <v>94.88203361027686</v>
       </c>
       <c r="Y11" t="n">
-        <v>266.7547008669918</v>
+        <v>94.88203361027686</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C12" t="n">
-        <v>6.613012871767516</v>
+        <v>23.57629922366561</v>
       </c>
       <c r="D12" t="n">
-        <v>6.613012871767516</v>
+        <v>23.57629922366561</v>
       </c>
       <c r="E12" t="n">
-        <v>6.613012871767516</v>
+        <v>23.57629922366561</v>
       </c>
       <c r="F12" t="n">
-        <v>6.613012871767516</v>
+        <v>23.57629922366561</v>
       </c>
       <c r="G12" t="n">
-        <v>6.613012871767516</v>
+        <v>78.93179881327541</v>
       </c>
       <c r="H12" t="n">
-        <v>6.613012871767516</v>
+        <v>157.121712378024</v>
       </c>
       <c r="I12" t="n">
-        <v>6.613012871767516</v>
+        <v>157.121712378024</v>
       </c>
       <c r="J12" t="n">
-        <v>6.613012871767516</v>
+        <v>157.121712378024</v>
       </c>
       <c r="K12" t="n">
-        <v>6.613012871767516</v>
+        <v>157.121712378024</v>
       </c>
       <c r="L12" t="n">
-        <v>6.613012871767516</v>
+        <v>157.121712378024</v>
       </c>
       <c r="M12" t="n">
-        <v>6.613012871767516</v>
+        <v>157.121712378024</v>
       </c>
       <c r="N12" t="n">
-        <v>88.44904715989054</v>
+        <v>180.6599863262277</v>
       </c>
       <c r="O12" t="n">
-        <v>88.44904715989054</v>
+        <v>180.6599863262277</v>
       </c>
       <c r="P12" t="n">
-        <v>88.44904715989054</v>
+        <v>180.6599863262277</v>
       </c>
       <c r="Q12" t="n">
-        <v>170.2850814480136</v>
+        <v>180.6599863262277</v>
       </c>
       <c r="R12" t="n">
-        <v>180.6599863262272</v>
+        <v>180.6599863262277</v>
       </c>
       <c r="S12" t="n">
-        <v>180.6599863262272</v>
+        <v>180.6599863262277</v>
       </c>
       <c r="T12" t="n">
-        <v>170.2639503784781</v>
+        <v>170.2639503784785</v>
       </c>
       <c r="U12" t="n">
-        <v>137.3600515118749</v>
+        <v>137.3600515118752</v>
       </c>
       <c r="V12" t="n">
-        <v>101.0003174589948</v>
+        <v>101.000317458995</v>
       </c>
       <c r="W12" t="n">
-        <v>38.32173223277189</v>
+        <v>38.32173223277207</v>
       </c>
       <c r="X12" t="n">
-        <v>25.53372189295406</v>
+        <v>25.53372189295414</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.37851777446954</v>
+        <v>33.37851777446946</v>
       </c>
       <c r="C13" t="n">
-        <v>33.37851777446954</v>
+        <v>40.12526408274839</v>
       </c>
       <c r="D13" t="n">
-        <v>33.37851777446954</v>
+        <v>99.00069669556514</v>
       </c>
       <c r="E13" t="n">
-        <v>33.37851777446954</v>
+        <v>161.3475732564827</v>
       </c>
       <c r="F13" t="n">
-        <v>33.37851777446954</v>
+        <v>226.4162162212409</v>
       </c>
       <c r="G13" t="n">
-        <v>33.37851777446954</v>
+        <v>226.4162162212409</v>
       </c>
       <c r="H13" t="n">
-        <v>33.37851777446954</v>
+        <v>226.4162162212409</v>
       </c>
       <c r="I13" t="n">
-        <v>33.37851777446954</v>
+        <v>226.4162162212409</v>
       </c>
       <c r="J13" t="n">
-        <v>33.37851777446954</v>
+        <v>226.4162162212409</v>
       </c>
       <c r="K13" t="n">
-        <v>33.37851777446954</v>
+        <v>294.8080715736921</v>
       </c>
       <c r="L13" t="n">
-        <v>33.37851777446954</v>
+        <v>294.8080715736921</v>
       </c>
       <c r="M13" t="n">
-        <v>73.00577586926701</v>
+        <v>294.8080715736921</v>
       </c>
       <c r="N13" t="n">
-        <v>149.8538622141946</v>
+        <v>294.8080715736921</v>
       </c>
       <c r="O13" t="n">
-        <v>211.5201255362111</v>
+        <v>294.8080715736921</v>
       </c>
       <c r="P13" t="n">
-        <v>293.3561598243342</v>
+        <v>294.8080715736921</v>
       </c>
       <c r="Q13" t="n">
-        <v>293.3561598243342</v>
+        <v>294.8080715736921</v>
       </c>
       <c r="R13" t="n">
-        <v>294.8080715736916</v>
+        <v>294.8080715736921</v>
       </c>
       <c r="S13" t="n">
-        <v>263.8072792930052</v>
+        <v>263.8072792930056</v>
       </c>
       <c r="T13" t="n">
-        <v>244.5288841767129</v>
+        <v>244.5288841767132</v>
       </c>
       <c r="U13" t="n">
-        <v>161.031246906921</v>
+        <v>161.0312469069213</v>
       </c>
       <c r="V13" t="n">
-        <v>120.1663671277302</v>
+        <v>120.1663671277304</v>
       </c>
       <c r="W13" t="n">
-        <v>36.66872985793829</v>
+        <v>36.66872985793846</v>
       </c>
       <c r="X13" t="n">
-        <v>19.22764783249224</v>
+        <v>19.22764783249233</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>293.359518738535</v>
+        <v>163.6553690487921</v>
       </c>
       <c r="C14" t="n">
-        <v>209.8618814687431</v>
+        <v>163.6553690487921</v>
       </c>
       <c r="D14" t="n">
-        <v>209.8618814687431</v>
+        <v>163.6553690487921</v>
       </c>
       <c r="E14" t="n">
-        <v>126.3642441989513</v>
+        <v>163.6553690487921</v>
       </c>
       <c r="F14" t="n">
-        <v>126.3642441989513</v>
+        <v>80.15773177900019</v>
       </c>
       <c r="G14" t="n">
-        <v>42.86660692915938</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H14" t="n">
-        <v>42.86660692915938</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I14" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J14" t="n">
-        <v>88.44904715989054</v>
+        <v>25.7420916128371</v>
       </c>
       <c r="K14" t="n">
-        <v>156.5534733886112</v>
+        <v>107.5781259009601</v>
       </c>
       <c r="L14" t="n">
-        <v>156.5534733886112</v>
+        <v>107.5781259009601</v>
       </c>
       <c r="M14" t="n">
-        <v>156.5534733886112</v>
+        <v>189.4141601890832</v>
       </c>
       <c r="N14" t="n">
-        <v>156.5534733886112</v>
+        <v>189.4141601890832</v>
       </c>
       <c r="O14" t="n">
-        <v>238.3895076767342</v>
+        <v>238.3895076767344</v>
       </c>
       <c r="P14" t="n">
-        <v>238.3895076767342</v>
+        <v>320.2255419648574</v>
       </c>
       <c r="Q14" t="n">
-        <v>320.2255419648573</v>
+        <v>320.2255419648574</v>
       </c>
       <c r="R14" t="n">
-        <v>330.6506435883758</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="S14" t="n">
-        <v>307.8336621379779</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="T14" t="n">
-        <v>307.8336621379779</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="U14" t="n">
-        <v>307.8336621379779</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="V14" t="n">
-        <v>307.8336621379779</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="W14" t="n">
-        <v>307.8336621379779</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="X14" t="n">
-        <v>307.8336621379779</v>
+        <v>247.153006318584</v>
       </c>
       <c r="Y14" t="n">
-        <v>307.8336621379779</v>
+        <v>163.6553690487921</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.23627977909896</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C15" t="n">
-        <v>34.23627977909896</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D15" t="n">
-        <v>34.23627977909896</v>
+        <v>26.45509781516945</v>
       </c>
       <c r="E15" t="n">
-        <v>34.23627977909896</v>
+        <v>26.45509781516945</v>
       </c>
       <c r="F15" t="n">
-        <v>34.23627977909896</v>
+        <v>71.82614944746085</v>
       </c>
       <c r="G15" t="n">
-        <v>34.23627977909896</v>
+        <v>127.1816490370708</v>
       </c>
       <c r="H15" t="n">
-        <v>34.23627977909896</v>
+        <v>127.1816490370708</v>
       </c>
       <c r="I15" t="n">
-        <v>34.23627977909896</v>
+        <v>127.1816490370708</v>
       </c>
       <c r="J15" t="n">
-        <v>34.23627977909896</v>
+        <v>127.1816490370708</v>
       </c>
       <c r="K15" t="n">
-        <v>34.23627977909896</v>
+        <v>127.1816490370708</v>
       </c>
       <c r="L15" t="n">
-        <v>116.072314067222</v>
+        <v>127.1816490370708</v>
       </c>
       <c r="M15" t="n">
-        <v>116.072314067222</v>
+        <v>127.1816490370708</v>
       </c>
       <c r="N15" t="n">
-        <v>116.072314067222</v>
+        <v>127.1816490370708</v>
       </c>
       <c r="O15" t="n">
-        <v>116.072314067222</v>
+        <v>127.1816490370708</v>
       </c>
       <c r="P15" t="n">
-        <v>167.6097053736749</v>
+        <v>127.1816490370708</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.6097053736749</v>
+        <v>127.1816490370708</v>
       </c>
       <c r="R15" t="n">
-        <v>167.6097053736749</v>
+        <v>167.6097053736753</v>
       </c>
       <c r="S15" t="n">
-        <v>180.6599863262267</v>
+        <v>180.659986326227</v>
       </c>
       <c r="T15" t="n">
-        <v>170.2639503784777</v>
+        <v>170.263950378478</v>
       </c>
       <c r="U15" t="n">
-        <v>137.3600515118745</v>
+        <v>137.3600515118748</v>
       </c>
       <c r="V15" t="n">
-        <v>101.0003174589945</v>
+        <v>101.0003174589947</v>
       </c>
       <c r="W15" t="n">
-        <v>38.32173223277172</v>
+        <v>38.32173223277184</v>
       </c>
       <c r="X15" t="n">
-        <v>25.53372189295397</v>
+        <v>25.53372189295403</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C16" t="n">
-        <v>44.42666007053541</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D16" t="n">
-        <v>103.3020926833523</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E16" t="n">
-        <v>103.3020926833523</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F16" t="n">
-        <v>103.3020926833523</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G16" t="n">
-        <v>138.8999488019075</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9569091774314</v>
+        <v>45.10083248954507</v>
       </c>
       <c r="I16" t="n">
-        <v>211.5201255362106</v>
+        <v>84.66404884832424</v>
       </c>
       <c r="J16" t="n">
-        <v>211.5201255362106</v>
+        <v>147.0342145027953</v>
       </c>
       <c r="K16" t="n">
-        <v>293.3561598243336</v>
+        <v>215.4260698552466</v>
       </c>
       <c r="L16" t="n">
-        <v>293.3561598243336</v>
+        <v>215.4260698552466</v>
       </c>
       <c r="M16" t="n">
-        <v>293.3561598243336</v>
+        <v>215.4260698552466</v>
       </c>
       <c r="N16" t="n">
-        <v>293.3561598243336</v>
+        <v>215.4260698552466</v>
       </c>
       <c r="O16" t="n">
-        <v>293.3561598243336</v>
+        <v>293.3561598243341</v>
       </c>
       <c r="P16" t="n">
-        <v>293.3561598243336</v>
+        <v>293.3561598243341</v>
       </c>
       <c r="Q16" t="n">
-        <v>293.3561598243336</v>
+        <v>293.3561598243341</v>
       </c>
       <c r="R16" t="n">
-        <v>294.8080715736912</v>
+        <v>294.8080715736916</v>
       </c>
       <c r="S16" t="n">
-        <v>263.8072792930049</v>
+        <v>263.8072792930052</v>
       </c>
       <c r="T16" t="n">
-        <v>244.5288841767127</v>
+        <v>244.5288841767129</v>
       </c>
       <c r="U16" t="n">
-        <v>161.0312469069208</v>
+        <v>161.031246906921</v>
       </c>
       <c r="V16" t="n">
-        <v>120.16636712773</v>
+        <v>120.1663671277301</v>
       </c>
       <c r="W16" t="n">
-        <v>36.66872985793812</v>
+        <v>36.66872985793823</v>
       </c>
       <c r="X16" t="n">
-        <v>19.22764783249215</v>
+        <v>19.22764783249221</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>220.1473307371739</v>
+        <v>220.1473307371741</v>
       </c>
       <c r="C17" t="n">
-        <v>205.9634208051918</v>
+        <v>205.9634208051921</v>
       </c>
       <c r="D17" t="n">
-        <v>204.3384378822515</v>
+        <v>204.3384378822519</v>
       </c>
       <c r="E17" t="n">
-        <v>168.6662302932418</v>
+        <v>168.6662302932422</v>
       </c>
       <c r="F17" t="n">
-        <v>100.9532776755682</v>
+        <v>100.9532776755684</v>
       </c>
       <c r="G17" t="n">
-        <v>17.45564040577626</v>
+        <v>17.45564040577632</v>
       </c>
       <c r="H17" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I17" t="n">
-        <v>85.14254072400678</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J17" t="n">
-        <v>166.9785750121298</v>
+        <v>70.0117342140359</v>
       </c>
       <c r="K17" t="n">
-        <v>166.9785750121298</v>
+        <v>151.8477685021589</v>
       </c>
       <c r="L17" t="n">
-        <v>166.9785750121298</v>
+        <v>151.8477685021589</v>
       </c>
       <c r="M17" t="n">
-        <v>166.9785750121298</v>
+        <v>151.8477685021589</v>
       </c>
       <c r="N17" t="n">
-        <v>166.9785750121298</v>
+        <v>151.8477685021589</v>
       </c>
       <c r="O17" t="n">
-        <v>166.9785750121298</v>
+        <v>233.683802790282</v>
       </c>
       <c r="P17" t="n">
-        <v>166.9785750121298</v>
+        <v>233.683802790282</v>
       </c>
       <c r="Q17" t="n">
-        <v>248.8146093002528</v>
+        <v>233.683802790282</v>
       </c>
       <c r="R17" t="n">
-        <v>248.8146093002528</v>
+        <v>233.683802790282</v>
       </c>
       <c r="S17" t="n">
-        <v>248.8146093002528</v>
+        <v>315.519837078405</v>
       </c>
       <c r="T17" t="n">
-        <v>248.8146093002528</v>
+        <v>315.519837078405</v>
       </c>
       <c r="U17" t="n">
-        <v>330.6506435883758</v>
+        <v>315.519837078405</v>
       </c>
       <c r="V17" t="n">
-        <v>330.6506435883758</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="W17" t="n">
-        <v>328.9001008840826</v>
+        <v>328.9001008840828</v>
       </c>
       <c r="X17" t="n">
-        <v>305.0422344737901</v>
+        <v>305.0422344737904</v>
       </c>
       <c r="Y17" t="n">
-        <v>258.4542133930494</v>
+        <v>258.4542133930496</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="M18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="N18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="O18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="P18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="R18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="S18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="T18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="U18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="V18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="W18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="X18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="M19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="N19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="O19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="P19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="R19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="S19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="T19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="U19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="V19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="W19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="X19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>220.147330737174</v>
+        <v>220.1473307371743</v>
       </c>
       <c r="C20" t="n">
-        <v>205.963420805192</v>
+        <v>205.9634208051925</v>
       </c>
       <c r="D20" t="n">
-        <v>204.3384378822519</v>
+        <v>204.3384378822524</v>
       </c>
       <c r="E20" t="n">
-        <v>168.6662302932422</v>
+        <v>168.6662302932427</v>
       </c>
       <c r="F20" t="n">
-        <v>100.9532776755686</v>
+        <v>100.9532776755682</v>
       </c>
       <c r="G20" t="n">
         <v>17.45564040577624</v>
       </c>
       <c r="H20" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I20" t="n">
-        <v>85.14254072400678</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J20" t="n">
-        <v>85.14254072400678</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="K20" t="n">
-        <v>166.9785750121298</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="L20" t="n">
-        <v>166.9785750121298</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="M20" t="n">
-        <v>166.9785750121298</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="N20" t="n">
-        <v>166.9785750121298</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="O20" t="n">
-        <v>248.8146093002528</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="P20" t="n">
-        <v>248.8146093002528</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="Q20" t="n">
-        <v>248.8146093002528</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="R20" t="n">
-        <v>248.8146093002528</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="S20" t="n">
-        <v>248.8146093002528</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="T20" t="n">
-        <v>248.8146093002528</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="U20" t="n">
-        <v>330.6506435883758</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="V20" t="n">
-        <v>330.6506435883758</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="W20" t="n">
-        <v>328.9001008840826</v>
+        <v>328.9001008840828</v>
       </c>
       <c r="X20" t="n">
-        <v>305.0422344737902</v>
+        <v>305.0422344737904</v>
       </c>
       <c r="Y20" t="n">
-        <v>258.4542133930495</v>
+        <v>258.4542133930497</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="M21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="N21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="O21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="P21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="R21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="S21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="T21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="U21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="V21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="W21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="X21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="M22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="N22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="O22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="P22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="R22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="S22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="T22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="U22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="V22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="W22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="X22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="23">
@@ -5987,40 +5987,40 @@
         <v>88.44904715989057</v>
       </c>
       <c r="J23" t="n">
-        <v>88.44904715989057</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="K23" t="n">
-        <v>88.44904715989057</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="L23" t="n">
-        <v>88.44904715989057</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="M23" t="n">
-        <v>170.2850814480136</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="N23" t="n">
-        <v>170.2850814480136</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="O23" t="n">
-        <v>170.2850814480136</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="P23" t="n">
-        <v>170.2850814480136</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="Q23" t="n">
-        <v>170.2850814480136</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="R23" t="n">
-        <v>170.2850814480136</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="S23" t="n">
-        <v>252.1211157361367</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="T23" t="n">
-        <v>315.519837078405</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="U23" t="n">
-        <v>315.519837078405</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="V23" t="n">
         <v>330.6506435883759</v>
@@ -6221,7 +6221,7 @@
         <v>64.07332369144433</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="J26" t="n">
         <v>171.8138854154936</v>
@@ -6230,10 +6230,10 @@
         <v>377.3929389292102</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7189186691553</v>
+        <v>636.7189186691558</v>
       </c>
       <c r="M26" t="n">
-        <v>930.3987315707761</v>
+        <v>930.3987315707765</v>
       </c>
       <c r="N26" t="n">
         <v>1218.578533116673</v>
@@ -6248,19 +6248,19 @@
         <v>1786.223060293145</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.758929437155</v>
+        <v>1804.758929437156</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.217396941447</v>
+        <v>1790.217396941448</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.55325716287</v>
+        <v>1780.553257162871</v>
       </c>
       <c r="U26" t="n">
         <v>1742.872352129444</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.746791583022</v>
+        <v>1633.746791583023</v>
       </c>
       <c r="W26" t="n">
         <v>1507.432665161232</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="C27" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="D27" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="E27" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="K27" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="L27" t="n">
-        <v>54.12031062647949</v>
+        <v>154.8180718511437</v>
       </c>
       <c r="M27" t="n">
-        <v>237.4189914840493</v>
+        <v>338.1167527087135</v>
       </c>
       <c r="N27" t="n">
-        <v>443.9889325685513</v>
+        <v>544.6866937932155</v>
       </c>
       <c r="O27" t="n">
-        <v>577.2129895868086</v>
+        <v>662.0605388381875</v>
       </c>
       <c r="P27" t="n">
-        <v>662.0605388381869</v>
+        <v>662.0605388381875</v>
       </c>
       <c r="Q27" t="n">
-        <v>655.9554523906692</v>
+        <v>662.0605388381875</v>
       </c>
       <c r="R27" t="n">
-        <v>655.9554523906692</v>
+        <v>662.0605388381875</v>
       </c>
       <c r="S27" t="n">
-        <v>655.9554523906692</v>
+        <v>662.0605388381875</v>
       </c>
       <c r="T27" t="n">
-        <v>653.8348653976107</v>
+        <v>444.9445188469527</v>
       </c>
       <c r="U27" t="n">
-        <v>414.2109824875216</v>
+        <v>348.7358544082647</v>
       </c>
       <c r="V27" t="n">
-        <v>171.1312643911557</v>
+        <v>320.6515693100751</v>
       </c>
       <c r="W27" t="n">
-        <v>116.7281281196233</v>
+        <v>51.25300004036642</v>
       </c>
       <c r="X27" t="n">
-        <v>46.74043865523911</v>
+        <v>46.74043865523912</v>
       </c>
       <c r="Y27" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
     </row>
     <row r="28">
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="C28" t="n">
-        <v>82.01959330800311</v>
+        <v>82.01959330800312</v>
       </c>
       <c r="D28" t="n">
-        <v>82.01959330800311</v>
+        <v>82.01959330800312</v>
       </c>
       <c r="E28" t="n">
-        <v>82.01959330800311</v>
+        <v>82.01959330800312</v>
       </c>
       <c r="F28" t="n">
-        <v>82.01959330800311</v>
+        <v>155.1990037932536</v>
       </c>
       <c r="G28" t="n">
-        <v>82.01959330800311</v>
+        <v>155.1990037932536</v>
       </c>
       <c r="H28" t="n">
-        <v>82.01959330800311</v>
+        <v>155.1990037932536</v>
       </c>
       <c r="I28" t="n">
-        <v>82.01959330800311</v>
+        <v>155.1990037932536</v>
       </c>
       <c r="J28" t="n">
-        <v>82.01959330800311</v>
+        <v>247.2582585015702</v>
       </c>
       <c r="K28" t="n">
-        <v>82.01959330800311</v>
+        <v>247.2582585015702</v>
       </c>
       <c r="L28" t="n">
-        <v>82.01959330800311</v>
+        <v>247.2582585015702</v>
       </c>
       <c r="M28" t="n">
-        <v>82.01959330800311</v>
+        <v>247.2582585015702</v>
       </c>
       <c r="N28" t="n">
-        <v>270.7419715358033</v>
+        <v>247.2582585015702</v>
       </c>
       <c r="O28" t="n">
         <v>270.7419715358033</v>
@@ -6421,13 +6421,13 @@
         <v>127.8477031414326</v>
       </c>
       <c r="W28" t="n">
-        <v>49.5999976655328</v>
+        <v>49.59999766553281</v>
       </c>
       <c r="X28" t="n">
-        <v>40.43436459477729</v>
+        <v>40.4343645947773</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.989143861832</v>
+        <v>1024.989143861833</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2416502123531</v>
+        <v>886.2416502123535</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0530835719159</v>
+        <v>760.0530835719162</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8172922654092</v>
+        <v>599.8172922654095</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5407559302383</v>
+        <v>407.5407559302387</v>
       </c>
       <c r="G29" t="n">
         <v>199.4795349429505</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07332369144463</v>
+        <v>64.07332369144466</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="J29" t="n">
         <v>171.8138854154935</v>
@@ -6467,40 +6467,40 @@
         <v>377.39293892921</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7189186691554</v>
+        <v>636.7189186691553</v>
       </c>
       <c r="M29" t="n">
-        <v>930.3987315707761</v>
+        <v>930.3987315707759</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.578533116673</v>
+        <v>1218.578533116674</v>
       </c>
       <c r="O29" t="n">
-        <v>1465.5321026131</v>
+        <v>1465.532102613101</v>
       </c>
       <c r="P29" t="n">
-        <v>1663.028607199424</v>
+        <v>1663.028607199425</v>
       </c>
       <c r="Q29" t="n">
         <v>1786.223060293145</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.758929437155</v>
+        <v>1804.758929437156</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.217396941447</v>
+        <v>1790.217396941448</v>
       </c>
       <c r="T29" t="n">
         <v>1780.553257162871</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.872352129444</v>
+        <v>1742.872352129445</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.746791583022</v>
+        <v>1633.746791583023</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.432665161232</v>
+        <v>1507.432665161233</v>
       </c>
       <c r="X29" t="n">
         <v>1359.011215033443</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="C30" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="D30" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="E30" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="F30" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="G30" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="K30" t="n">
         <v>75.09223206028355</v>
@@ -6549,43 +6549,43 @@
         <v>193.8151253226841</v>
       </c>
       <c r="M30" t="n">
-        <v>377.113806180254</v>
+        <v>322.2665407354333</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6837472647559</v>
+        <v>528.8364818199352</v>
       </c>
       <c r="O30" t="n">
-        <v>662.0605388381898</v>
+        <v>662.0605388381925</v>
       </c>
       <c r="P30" t="n">
-        <v>662.0605388381898</v>
+        <v>662.0605388381925</v>
       </c>
       <c r="Q30" t="n">
-        <v>655.9554523906721</v>
+        <v>662.0605388381925</v>
       </c>
       <c r="R30" t="n">
-        <v>655.9554523906721</v>
+        <v>662.0605388381925</v>
       </c>
       <c r="S30" t="n">
-        <v>655.9554523906721</v>
+        <v>662.0605388381925</v>
       </c>
       <c r="T30" t="n">
-        <v>653.8348653976135</v>
+        <v>588.3597373183541</v>
       </c>
       <c r="U30" t="n">
-        <v>629.2064154857007</v>
+        <v>563.7312874064412</v>
       </c>
       <c r="V30" t="n">
-        <v>601.1221303875111</v>
+        <v>320.6515693100753</v>
       </c>
       <c r="W30" t="n">
-        <v>331.7235611178024</v>
+        <v>51.25300004036665</v>
       </c>
       <c r="X30" t="n">
-        <v>261.7358716534155</v>
+        <v>46.74043865523923</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="C31" t="n">
-        <v>82.01959330800302</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="D31" t="n">
-        <v>149.005793441312</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="E31" t="n">
-        <v>219.4634375227218</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="F31" t="n">
-        <v>227.0333478967567</v>
+        <v>84.14835287763762</v>
       </c>
       <c r="G31" t="n">
-        <v>270.7419715358039</v>
+        <v>84.14835287763762</v>
       </c>
       <c r="H31" t="n">
-        <v>270.7419715358039</v>
+        <v>84.14835287763762</v>
       </c>
       <c r="I31" t="n">
-        <v>270.7419715358039</v>
+        <v>84.14835287763762</v>
       </c>
       <c r="J31" t="n">
-        <v>270.7419715358039</v>
+        <v>84.14835287763762</v>
       </c>
       <c r="K31" t="n">
-        <v>270.7419715358039</v>
+        <v>84.14835287763762</v>
       </c>
       <c r="L31" t="n">
-        <v>270.7419715358039</v>
+        <v>84.14835287763762</v>
       </c>
       <c r="M31" t="n">
-        <v>270.7419715358039</v>
+        <v>270.7419715358041</v>
       </c>
       <c r="N31" t="n">
-        <v>270.7419715358039</v>
+        <v>270.7419715358041</v>
       </c>
       <c r="O31" t="n">
-        <v>270.7419715358039</v>
+        <v>270.7419715358041</v>
       </c>
       <c r="P31" t="n">
-        <v>270.7419715358039</v>
+        <v>270.7419715358041</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7419715358039</v>
+        <v>270.7419715358041</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7419715358039</v>
+        <v>270.7419715358041</v>
       </c>
       <c r="S31" t="n">
-        <v>248.016628209808</v>
+        <v>248.0166282098081</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0136820482061</v>
+        <v>237.0136820482062</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4371339659332</v>
+        <v>160.4371339659334</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8477031414328</v>
+        <v>127.8477031414329</v>
       </c>
       <c r="W31" t="n">
-        <v>49.59999766553297</v>
+        <v>49.59999766553305</v>
       </c>
       <c r="X31" t="n">
-        <v>40.43436459477738</v>
+        <v>40.43436459477742</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
     </row>
     <row r="32">
@@ -6677,43 +6677,43 @@
         <v>1024.989143861833</v>
       </c>
       <c r="C32" t="n">
-        <v>886.241650212354</v>
+        <v>886.2416502123538</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0530835719169</v>
+        <v>760.0530835719167</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8172922654103</v>
+        <v>599.8172922654099</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5407559302396</v>
+        <v>407.5407559302392</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4795349429502</v>
+        <v>199.4795349429504</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07332369144451</v>
+        <v>64.0733236914446</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="J32" t="n">
         <v>171.8138854154936</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3929389292102</v>
+        <v>377.3929389292101</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7189186691558</v>
+        <v>636.7189186691555</v>
       </c>
       <c r="M32" t="n">
-        <v>930.3987315707757</v>
+        <v>930.3987315707762</v>
       </c>
       <c r="N32" t="n">
         <v>1218.578533116673</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.532102613099</v>
+        <v>1465.5321026131</v>
       </c>
       <c r="P32" t="n">
         <v>1663.028607199424</v>
@@ -6722,7 +6722,7 @@
         <v>1786.223060293144</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.758929437155</v>
+        <v>1804.758929437156</v>
       </c>
       <c r="S32" t="n">
         <v>1790.217396941448</v>
@@ -6743,7 +6743,7 @@
         <v>1359.011215033443</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.859610235206</v>
+        <v>1187.859610235205</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36.09517858874311</v>
+        <v>401.9911867651173</v>
       </c>
       <c r="C33" t="n">
-        <v>36.09517858874311</v>
+        <v>262.0465085176239</v>
       </c>
       <c r="D33" t="n">
-        <v>36.09517858874311</v>
+        <v>262.0465085176239</v>
       </c>
       <c r="E33" t="n">
-        <v>36.09517858874311</v>
+        <v>88.48330463903841</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09517858874311</v>
+        <v>88.48330463903841</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09517858874311</v>
+        <v>88.48330463903841</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09517858874311</v>
+        <v>88.48330463903841</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09517858874311</v>
+        <v>88.48330463903841</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="K33" t="n">
-        <v>54.1203106264779</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="L33" t="n">
-        <v>54.1203106264779</v>
+        <v>154.8180718511437</v>
       </c>
       <c r="M33" t="n">
-        <v>237.4189914840478</v>
+        <v>237.4189914840545</v>
       </c>
       <c r="N33" t="n">
-        <v>443.9889325685497</v>
+        <v>443.9889325685565</v>
       </c>
       <c r="O33" t="n">
-        <v>577.212989586807</v>
+        <v>577.2129895868138</v>
       </c>
       <c r="P33" t="n">
-        <v>662.0605388381853</v>
+        <v>662.0605388381921</v>
       </c>
       <c r="Q33" t="n">
-        <v>655.9554523906676</v>
+        <v>662.0605388381921</v>
       </c>
       <c r="R33" t="n">
-        <v>655.9554523906676</v>
+        <v>526.3854664914342</v>
       </c>
       <c r="S33" t="n">
-        <v>655.9554523906676</v>
+        <v>526.3854664914342</v>
       </c>
       <c r="T33" t="n">
-        <v>653.8348653976091</v>
+        <v>524.2648794983755</v>
       </c>
       <c r="U33" t="n">
-        <v>629.2064154856964</v>
+        <v>499.6364295864627</v>
       </c>
       <c r="V33" t="n">
-        <v>386.1266973893305</v>
+        <v>471.5521444882731</v>
       </c>
       <c r="W33" t="n">
-        <v>116.7281281196218</v>
+        <v>417.1490082167407</v>
       </c>
       <c r="X33" t="n">
-        <v>46.74043865523908</v>
+        <v>412.6364468316133</v>
       </c>
       <c r="Y33" t="n">
-        <v>36.09517858874311</v>
+        <v>401.9911867651173</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.26915013992655</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="C34" t="n">
-        <v>40.26915013992655</v>
+        <v>75.55861596032483</v>
       </c>
       <c r="D34" t="n">
-        <v>107.2553502732356</v>
+        <v>75.55861596032483</v>
       </c>
       <c r="E34" t="n">
-        <v>107.2553502732356</v>
+        <v>75.55861596032483</v>
       </c>
       <c r="F34" t="n">
-        <v>180.4347607584861</v>
+        <v>75.55861596032483</v>
       </c>
       <c r="G34" t="n">
-        <v>224.1433843975334</v>
+        <v>75.55861596032483</v>
       </c>
       <c r="H34" t="n">
-        <v>270.7419715358031</v>
+        <v>75.55861596032483</v>
       </c>
       <c r="I34" t="n">
-        <v>270.7419715358031</v>
+        <v>75.55861596032483</v>
       </c>
       <c r="J34" t="n">
-        <v>270.7419715358031</v>
+        <v>75.55861596032483</v>
       </c>
       <c r="K34" t="n">
-        <v>270.7419715358031</v>
+        <v>75.55861596032483</v>
       </c>
       <c r="L34" t="n">
-        <v>270.7419715358031</v>
+        <v>75.55861596032483</v>
       </c>
       <c r="M34" t="n">
-        <v>270.7419715358031</v>
+        <v>75.55861596032483</v>
       </c>
       <c r="N34" t="n">
-        <v>270.7419715358031</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="O34" t="n">
-        <v>270.7419715358031</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7419715358031</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7419715358031</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7419715358031</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0166282098073</v>
+        <v>248.0166282098078</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0136820482056</v>
+        <v>237.013682048206</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4371339659328</v>
+        <v>160.4371339659331</v>
       </c>
       <c r="V34" t="n">
-        <v>127.8477031414325</v>
+        <v>127.8477031414327</v>
       </c>
       <c r="W34" t="n">
-        <v>49.59999766553275</v>
+        <v>49.59999766553293</v>
       </c>
       <c r="X34" t="n">
-        <v>40.43436459477726</v>
+        <v>40.43436459477736</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
     </row>
     <row r="35">
@@ -6914,46 +6914,46 @@
         <v>856.9281533672752</v>
       </c>
       <c r="C35" t="n">
-        <v>741.2446565210515</v>
+        <v>741.2446565210518</v>
       </c>
       <c r="D35" t="n">
-        <v>638.1200866838701</v>
+        <v>638.1200866838703</v>
       </c>
       <c r="E35" t="n">
-        <v>500.9482921806191</v>
+        <v>500.9482921806193</v>
       </c>
       <c r="F35" t="n">
-        <v>331.7357526487041</v>
+        <v>331.7357526487044</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7385284646709</v>
+        <v>146.7385284646712</v>
       </c>
       <c r="H35" t="n">
-        <v>34.39631401642136</v>
+        <v>34.39631401642137</v>
       </c>
       <c r="I35" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J35" t="n">
-        <v>29.48216571697559</v>
+        <v>79.32703524540821</v>
       </c>
       <c r="K35" t="n">
-        <v>257.666242497563</v>
+        <v>307.5111120259957</v>
       </c>
       <c r="L35" t="n">
-        <v>257.666242497563</v>
+        <v>307.5111120259957</v>
       </c>
       <c r="M35" t="n">
-        <v>573.9510786660546</v>
+        <v>623.7959481944872</v>
       </c>
       <c r="N35" t="n">
-        <v>884.7359034788226</v>
+        <v>934.5807730072552</v>
       </c>
       <c r="O35" t="n">
-        <v>1154.29449624212</v>
+        <v>1086.721214497277</v>
       </c>
       <c r="P35" t="n">
-        <v>1374.396024095315</v>
+        <v>1306.822742350472</v>
       </c>
       <c r="Q35" t="n">
         <v>1452.622218711064</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="C36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="D36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="E36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="F36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="G36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="H36" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="I36" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J36" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="K36" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="L36" t="n">
         <v>67.40604658884324</v>
@@ -7050,16 +7050,16 @@
         <v>65.84159348018619</v>
       </c>
       <c r="V36" t="n">
-        <v>60.82130518525228</v>
+        <v>60.82130518525229</v>
       </c>
       <c r="W36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="X36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
     </row>
     <row r="37">
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>43.10395201119898</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="C37" t="n">
-        <v>43.10395201119898</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="D37" t="n">
-        <v>43.10395201119898</v>
+        <v>54.64119234160073</v>
       </c>
       <c r="E37" t="n">
-        <v>43.10395201119898</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="F37" t="n">
-        <v>43.10395201119898</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="G37" t="n">
-        <v>43.10395201119898</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="H37" t="n">
-        <v>43.10395201119898</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="I37" t="n">
-        <v>43.10395201119898</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="J37" t="n">
-        <v>135.8828239559965</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="K37" t="n">
-        <v>135.8828239559965</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="L37" t="n">
-        <v>135.8828239559965</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="M37" t="n">
-        <v>135.8828239559965</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="N37" t="n">
-        <v>135.8828239559965</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="O37" t="n">
-        <v>135.8828239559965</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="P37" t="n">
-        <v>135.8828239559965</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="Q37" t="n">
-        <v>135.8828239559965</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="R37" t="n">
-        <v>135.8828239559965</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="S37" t="n">
-        <v>135.8828239559965</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="T37" t="n">
         <v>147.7038596898815</v>
@@ -7132,13 +7132,13 @@
         <v>84.66587438961969</v>
       </c>
       <c r="W37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="X37" t="n">
-        <v>43.10395201119898</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Y37" t="n">
-        <v>43.10395201119898</v>
+        <v>29.4821657169756</v>
       </c>
     </row>
     <row r="38">
@@ -7172,31 +7172,31 @@
         <v>29.4821657169756</v>
       </c>
       <c r="J38" t="n">
-        <v>132.174460858437</v>
+        <v>187.805895810597</v>
       </c>
       <c r="K38" t="n">
-        <v>152.4127725663708</v>
+        <v>415.9899725911844</v>
       </c>
       <c r="L38" t="n">
-        <v>434.3437755731872</v>
+        <v>697.9209755980007</v>
       </c>
       <c r="M38" t="n">
-        <v>517.3065645932953</v>
+        <v>1014.205811766492</v>
       </c>
       <c r="N38" t="n">
-        <v>828.0913894060634</v>
+        <v>1014.205811766492</v>
       </c>
       <c r="O38" t="n">
-        <v>1097.649982169361</v>
+        <v>1053.933189354223</v>
       </c>
       <c r="P38" t="n">
-        <v>1306.822742350473</v>
+        <v>1274.034717207419</v>
       </c>
       <c r="Q38" t="n">
-        <v>1452.622218711064</v>
+        <v>1419.83419356801</v>
       </c>
       <c r="R38" t="n">
-        <v>1452.622218711064</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="S38" t="n">
         <v>1460.975085978892</v>
@@ -7239,43 +7239,43 @@
         <v>29.4821657169756</v>
       </c>
       <c r="F39" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="G39" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="H39" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="I39" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J39" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="K39" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="L39" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="M39" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="N39" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="O39" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="P39" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Q39" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="R39" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="S39" t="n">
         <v>67.40604658884324</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.4821657169756</v>
+        <v>47.83435277933236</v>
       </c>
       <c r="C40" t="n">
-        <v>29.4821657169756</v>
+        <v>47.83435277933236</v>
       </c>
       <c r="D40" t="n">
-        <v>29.4821657169756</v>
+        <v>47.83435277933236</v>
       </c>
       <c r="E40" t="n">
-        <v>78.50024928474089</v>
+        <v>47.83435277933236</v>
       </c>
       <c r="F40" t="n">
-        <v>78.50024928474089</v>
+        <v>47.83435277933236</v>
       </c>
       <c r="G40" t="n">
-        <v>78.50024928474089</v>
+        <v>47.83435277933236</v>
       </c>
       <c r="H40" t="n">
-        <v>147.7038596898815</v>
+        <v>47.83435277933236</v>
       </c>
       <c r="I40" t="n">
-        <v>147.7038596898815</v>
+        <v>118.1133599254746</v>
       </c>
       <c r="J40" t="n">
         <v>147.7038596898815</v>
@@ -7375,7 +7375,7 @@
         <v>29.4821657169756</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.4821657169756</v>
+        <v>47.83435277933236</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>856.9281533672754</v>
+        <v>856.9281533672763</v>
       </c>
       <c r="C41" t="n">
-        <v>741.244656521052</v>
+        <v>741.2446565210527</v>
       </c>
       <c r="D41" t="n">
-        <v>638.1200866838705</v>
+        <v>638.1200866838712</v>
       </c>
       <c r="E41" t="n">
-        <v>500.9482921806194</v>
+        <v>500.9482921806203</v>
       </c>
       <c r="F41" t="n">
-        <v>331.7357526487044</v>
+        <v>331.7357526487053</v>
       </c>
       <c r="G41" t="n">
-        <v>146.7385284646712</v>
+        <v>146.7385284646714</v>
       </c>
       <c r="H41" t="n">
-        <v>34.39631401642143</v>
+        <v>34.39631401642134</v>
       </c>
       <c r="I41" t="n">
         <v>29.4821657169756</v>
       </c>
       <c r="J41" t="n">
-        <v>187.8058958105969</v>
+        <v>187.805895810597</v>
       </c>
       <c r="K41" t="n">
-        <v>415.9899725911843</v>
+        <v>415.9899725911845</v>
       </c>
       <c r="L41" t="n">
-        <v>697.9209755980006</v>
+        <v>697.920975598001</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.205811766492</v>
+        <v>918.6604795119088</v>
       </c>
       <c r="N41" t="n">
-        <v>1014.205811766492</v>
+        <v>1229.445304324677</v>
       </c>
       <c r="O41" t="n">
-        <v>1232.520690857869</v>
+        <v>1265.681849939591</v>
       </c>
       <c r="P41" t="n">
-        <v>1452.622218711064</v>
+        <v>1265.681849939591</v>
       </c>
       <c r="Q41" t="n">
-        <v>1452.622218711064</v>
+        <v>1411.481326300182</v>
       </c>
       <c r="R41" t="n">
         <v>1452.622218711064</v>
@@ -7448,13 +7448,13 @@
         <v>1373.429813875443</v>
       </c>
       <c r="W41" t="n">
-        <v>1270.179684256908</v>
+        <v>1270.179684256909</v>
       </c>
       <c r="X41" t="n">
         <v>1144.822230932375</v>
       </c>
       <c r="Y41" t="n">
-        <v>996.7346229373925</v>
+        <v>996.7346229373932</v>
       </c>
     </row>
     <row r="42">
@@ -7482,49 +7482,49 @@
         <v>29.4821657169756</v>
       </c>
       <c r="H42" t="n">
-        <v>29.4821657169756</v>
+        <v>67.40604658884315</v>
       </c>
       <c r="I42" t="n">
-        <v>29.4821657169756</v>
+        <v>67.40604658884315</v>
       </c>
       <c r="J42" t="n">
-        <v>29.4821657169756</v>
+        <v>67.40604658884315</v>
       </c>
       <c r="K42" t="n">
-        <v>67.40604658884341</v>
+        <v>67.40604658884315</v>
       </c>
       <c r="L42" t="n">
-        <v>67.40604658884341</v>
+        <v>67.40604658884315</v>
       </c>
       <c r="M42" t="n">
-        <v>67.40604658884341</v>
+        <v>67.40604658884315</v>
       </c>
       <c r="N42" t="n">
-        <v>67.40604658884341</v>
+        <v>67.40604658884315</v>
       </c>
       <c r="O42" t="n">
-        <v>67.40604658884341</v>
+        <v>67.40604658884315</v>
       </c>
       <c r="P42" t="n">
-        <v>67.40604658884341</v>
+        <v>67.40604658884315</v>
       </c>
       <c r="Q42" t="n">
-        <v>67.40604658884341</v>
+        <v>67.40604658884315</v>
       </c>
       <c r="R42" t="n">
-        <v>67.40604658884341</v>
+        <v>67.40604658884315</v>
       </c>
       <c r="S42" t="n">
-        <v>67.40604658884341</v>
+        <v>67.40604658884315</v>
       </c>
       <c r="T42" t="n">
-        <v>67.40604658884341</v>
+        <v>67.40604658884315</v>
       </c>
       <c r="U42" t="n">
-        <v>65.8415934801863</v>
+        <v>65.84159348018613</v>
       </c>
       <c r="V42" t="n">
-        <v>60.82130518525234</v>
+        <v>60.82130518525226</v>
       </c>
       <c r="W42" t="n">
         <v>29.4821657169756</v>
@@ -7543,67 +7543,67 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.96346140704063</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="C43" t="n">
-        <v>86.96346140704063</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="D43" t="n">
-        <v>147.7038596898817</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="E43" t="n">
-        <v>147.7038596898817</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="F43" t="n">
-        <v>147.7038596898817</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="G43" t="n">
-        <v>147.7038596898817</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="H43" t="n">
-        <v>147.7038596898817</v>
+        <v>42.79686751416234</v>
       </c>
       <c r="I43" t="n">
-        <v>147.7038596898817</v>
+        <v>42.79686751416234</v>
       </c>
       <c r="J43" t="n">
-        <v>147.7038596898817</v>
+        <v>135.8828239559964</v>
       </c>
       <c r="K43" t="n">
-        <v>147.7038596898817</v>
+        <v>135.8828239559964</v>
       </c>
       <c r="L43" t="n">
-        <v>147.7038596898817</v>
+        <v>135.8828239559964</v>
       </c>
       <c r="M43" t="n">
-        <v>147.7038596898817</v>
+        <v>135.8828239559964</v>
       </c>
       <c r="N43" t="n">
-        <v>147.7038596898817</v>
+        <v>135.8828239559964</v>
       </c>
       <c r="O43" t="n">
-        <v>147.7038596898817</v>
+        <v>135.8828239559964</v>
       </c>
       <c r="P43" t="n">
-        <v>147.7038596898817</v>
+        <v>135.8828239559964</v>
       </c>
       <c r="Q43" t="n">
-        <v>147.7038596898817</v>
+        <v>135.8828239559964</v>
       </c>
       <c r="R43" t="n">
-        <v>147.7038596898817</v>
+        <v>135.8828239559964</v>
       </c>
       <c r="S43" t="n">
-        <v>147.7038596898817</v>
+        <v>135.8828239559964</v>
       </c>
       <c r="T43" t="n">
-        <v>147.7038596898817</v>
+        <v>147.7038596898814</v>
       </c>
       <c r="U43" t="n">
-        <v>94.19130841086448</v>
+        <v>94.19130841086431</v>
       </c>
       <c r="V43" t="n">
-        <v>84.66587438961974</v>
+        <v>84.66587438961966</v>
       </c>
       <c r="W43" t="n">
         <v>29.4821657169756</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>856.9281533672759</v>
+        <v>856.9281533672755</v>
       </c>
       <c r="C44" t="n">
         <v>741.2446565210523</v>
@@ -7631,49 +7631,49 @@
         <v>638.1200866838708</v>
       </c>
       <c r="E44" t="n">
-        <v>500.9482921806194</v>
+        <v>500.9482921806195</v>
       </c>
       <c r="F44" t="n">
-        <v>331.7357526487044</v>
+        <v>331.7357526487046</v>
       </c>
       <c r="G44" t="n">
-        <v>146.7385284646712</v>
+        <v>146.7385284646714</v>
       </c>
       <c r="H44" t="n">
-        <v>34.39631401642143</v>
+        <v>34.39631401642137</v>
       </c>
       <c r="I44" t="n">
         <v>29.4821657169756</v>
       </c>
       <c r="J44" t="n">
-        <v>187.8058958105969</v>
+        <v>187.805895810597</v>
       </c>
       <c r="K44" t="n">
-        <v>356.6811859515157</v>
+        <v>208.0442075185308</v>
       </c>
       <c r="L44" t="n">
-        <v>638.612188958332</v>
+        <v>255.619216954066</v>
       </c>
       <c r="M44" t="n">
-        <v>954.8970251268236</v>
+        <v>571.9040531225576</v>
       </c>
       <c r="N44" t="n">
-        <v>1265.681849939592</v>
+        <v>882.6888779353255</v>
       </c>
       <c r="O44" t="n">
-        <v>1265.681849939592</v>
+        <v>1152.247470698623</v>
       </c>
       <c r="P44" t="n">
-        <v>1265.681849939592</v>
+        <v>1372.348998551818</v>
       </c>
       <c r="Q44" t="n">
-        <v>1411.481326300183</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="R44" t="n">
-        <v>1452.622218711064</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="S44" t="n">
-        <v>1460.975085978892</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="T44" t="n">
         <v>1474.10828584878</v>
@@ -7685,13 +7685,13 @@
         <v>1373.429813875443</v>
       </c>
       <c r="W44" t="n">
-        <v>1270.179684256909</v>
+        <v>1270.179684256908</v>
       </c>
       <c r="X44" t="n">
-        <v>1144.822230932375</v>
+        <v>1144.822230932374</v>
       </c>
       <c r="Y44" t="n">
-        <v>996.7346229373927</v>
+        <v>996.7346229373924</v>
       </c>
     </row>
     <row r="45">
@@ -7701,67 +7701,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.4821657169756</v>
+        <v>41.65376959267373</v>
       </c>
       <c r="C45" t="n">
-        <v>29.4821657169756</v>
+        <v>41.65376959267373</v>
       </c>
       <c r="D45" t="n">
-        <v>29.4821657169756</v>
+        <v>41.65376959267373</v>
       </c>
       <c r="E45" t="n">
-        <v>29.4821657169756</v>
+        <v>41.65376959267373</v>
       </c>
       <c r="F45" t="n">
-        <v>29.4821657169756</v>
+        <v>41.65376959267373</v>
       </c>
       <c r="G45" t="n">
-        <v>29.4821657169756</v>
+        <v>41.65376959267373</v>
       </c>
       <c r="H45" t="n">
-        <v>29.4821657169756</v>
+        <v>41.65376959267373</v>
       </c>
       <c r="I45" t="n">
-        <v>29.4821657169756</v>
+        <v>41.65376959267373</v>
       </c>
       <c r="J45" t="n">
-        <v>29.4821657169756</v>
+        <v>41.65376959267373</v>
       </c>
       <c r="K45" t="n">
-        <v>29.4821657169756</v>
+        <v>41.65376959267373</v>
       </c>
       <c r="L45" t="n">
-        <v>29.4821657169756</v>
+        <v>41.65376959267373</v>
       </c>
       <c r="M45" t="n">
-        <v>29.4821657169756</v>
+        <v>41.65376959267373</v>
       </c>
       <c r="N45" t="n">
-        <v>29.4821657169756</v>
+        <v>41.65376959267373</v>
       </c>
       <c r="O45" t="n">
-        <v>29.4821657169756</v>
+        <v>46.87941063386906</v>
       </c>
       <c r="P45" t="n">
-        <v>67.40604658884341</v>
+        <v>46.87941063386906</v>
       </c>
       <c r="Q45" t="n">
-        <v>67.40604658884341</v>
+        <v>46.87941063386906</v>
       </c>
       <c r="R45" t="n">
-        <v>67.40604658884341</v>
+        <v>46.87941063386906</v>
       </c>
       <c r="S45" t="n">
-        <v>67.40604658884341</v>
+        <v>46.87941063386906</v>
       </c>
       <c r="T45" t="n">
-        <v>67.40604658884341</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="U45" t="n">
-        <v>65.8415934801863</v>
+        <v>65.84159348018619</v>
       </c>
       <c r="V45" t="n">
-        <v>60.82130518525234</v>
+        <v>60.82130518525229</v>
       </c>
       <c r="W45" t="n">
         <v>29.4821657169756</v>
@@ -7770,7 +7770,7 @@
         <v>29.4821657169756</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.4821657169756</v>
+        <v>41.65376959267373</v>
       </c>
     </row>
     <row r="46">
@@ -7804,43 +7804,43 @@
         <v>29.4821657169756</v>
       </c>
       <c r="J46" t="n">
-        <v>29.4821657169756</v>
+        <v>122.5681221588097</v>
       </c>
       <c r="K46" t="n">
-        <v>29.4821657169756</v>
+        <v>122.5681221588097</v>
       </c>
       <c r="L46" t="n">
-        <v>29.4821657169756</v>
+        <v>122.5681221588097</v>
       </c>
       <c r="M46" t="n">
-        <v>29.4821657169756</v>
+        <v>122.5681221588097</v>
       </c>
       <c r="N46" t="n">
-        <v>29.4821657169756</v>
+        <v>122.5681221588097</v>
       </c>
       <c r="O46" t="n">
-        <v>121.8642198263552</v>
+        <v>122.5681221588097</v>
       </c>
       <c r="P46" t="n">
-        <v>121.8642198263552</v>
+        <v>122.5681221588097</v>
       </c>
       <c r="Q46" t="n">
-        <v>147.7038596898817</v>
+        <v>122.5681221588097</v>
       </c>
       <c r="R46" t="n">
-        <v>147.7038596898817</v>
+        <v>135.5509096829342</v>
       </c>
       <c r="S46" t="n">
-        <v>147.7038596898817</v>
+        <v>135.8828239559965</v>
       </c>
       <c r="T46" t="n">
-        <v>147.7038596898817</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="U46" t="n">
-        <v>94.19130841086448</v>
+        <v>94.19130841086437</v>
       </c>
       <c r="V46" t="n">
-        <v>84.66587438961974</v>
+        <v>84.66587438961969</v>
       </c>
       <c r="W46" t="n">
         <v>29.4821657169756</v>
@@ -8693,25 +8693,25 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L11" t="n">
-        <v>270.6444670286918</v>
+        <v>221.5445116161334</v>
       </c>
       <c r="M11" t="n">
-        <v>85.49384940739033</v>
+        <v>207.4839727133473</v>
       </c>
       <c r="N11" t="n">
-        <v>283.4008070189657</v>
+        <v>205.1555770549409</v>
       </c>
       <c r="O11" t="n">
-        <v>88.16582282410616</v>
+        <v>88.16582282410626</v>
       </c>
       <c r="P11" t="n">
-        <v>17.22683858619947</v>
+        <v>99.88949948329352</v>
       </c>
       <c r="Q11" t="n">
-        <v>21.33396690395311</v>
+        <v>81.33442055159944</v>
       </c>
       <c r="R11" t="n">
-        <v>33.13135983964843</v>
+        <v>32.05383439737101</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,19 +8766,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>131.9825104815849</v>
+        <v>77.45672342532848</v>
       </c>
       <c r="L12" t="n">
-        <v>120.3824293501764</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>116.626698625586</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>184.6200133257551</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>120.6530283274244</v>
@@ -8787,10 +8787,10 @@
         <v>120.6592788752669</v>
       </c>
       <c r="Q12" t="n">
-        <v>31.73018532586936</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R12" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8848,25 +8848,25 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K13" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>105.2836065989273</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>63.34035913843777</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>210.0462273461148</v>
+        <v>93.24597309853763</v>
       </c>
       <c r="L14" t="n">
         <v>221.5445116161334</v>
       </c>
       <c r="M14" t="n">
-        <v>207.4839727133473</v>
+        <v>290.1466336104413</v>
       </c>
       <c r="N14" t="n">
         <v>205.1555770549409</v>
       </c>
       <c r="O14" t="n">
-        <v>88.16582282410607</v>
+        <v>186.3060926429391</v>
       </c>
       <c r="P14" t="n">
-        <v>17.22683858619938</v>
+        <v>99.88949948329341</v>
       </c>
       <c r="Q14" t="n">
-        <v>103.996627801047</v>
+        <v>21.33396690395308</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9000,16 +9000,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
         <v>131.9825104815849</v>
       </c>
       <c r="L15" t="n">
-        <v>203.0450902472703</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>101.9573524286611</v>
       </c>
       <c r="O15" t="n">
-        <v>23.61450197273788</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>120.6592788752669</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9085,22 +9085,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N16" t="n">
         <v>111.3378805152112</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>131.9825104815849</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5896334286979</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M27" t="n">
         <v>301.77688131</v>
@@ -9966,10 +9966,10 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
-        <v>255.2227828913207</v>
+        <v>239.2124677667902</v>
       </c>
       <c r="P27" t="n">
-        <v>206.3638740786793</v>
+        <v>120.6592788752669</v>
       </c>
       <c r="Q27" t="n">
         <v>136.1300824528302</v>
@@ -10197,13 +10197,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M30" t="n">
-        <v>301.77688131</v>
+        <v>246.3756030829084</v>
       </c>
       <c r="N30" t="n">
         <v>310.6138585746227</v>
       </c>
       <c r="O30" t="n">
-        <v>199.8215046642264</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
         <v>120.6592788752669</v>
@@ -10428,13 +10428,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>150.1897145601048</v>
+        <v>131.9825104815849</v>
       </c>
       <c r="L33" t="n">
-        <v>120.3824293501764</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
-        <v>301.77688131</v>
+        <v>200.0619709820616</v>
       </c>
       <c r="N33" t="n">
         <v>310.6138585746227</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>109.5746066315038</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>29.34249079117646</v>
       </c>
       <c r="M35" t="n">
         <v>291.2847697033555</v>
@@ -10598,16 +10598,16 @@
         <v>283.4008070189657</v>
       </c>
       <c r="O35" t="n">
-        <v>246.758517458259</v>
+        <v>128.1543242529304</v>
       </c>
       <c r="P35" t="n">
         <v>208.5255628951208</v>
       </c>
       <c r="Q35" t="n">
-        <v>104.2025729152351</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R35" t="n">
-        <v>1.027783097004196</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,16 +10659,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
         <v>131.9825104815849</v>
       </c>
       <c r="L36" t="n">
-        <v>120.3824293501764</v>
+        <v>158.6893797258002</v>
       </c>
       <c r="M36" t="n">
         <v>116.626698625586</v>
@@ -10683,10 +10683,10 @@
         <v>120.6592788752669</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10747,7 +10747,7 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>115.6742602693208</v>
@@ -10823,7 +10823,7 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L38" t="n">
         <v>270.6444670286918</v>
@@ -10832,19 +10832,19 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N38" t="n">
-        <v>283.4008070189657</v>
+        <v>205.1555770549409</v>
       </c>
       <c r="O38" t="n">
-        <v>246.758517458259</v>
+        <v>240.3277649722471</v>
       </c>
       <c r="P38" t="n">
-        <v>197.4864036303902</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q38" t="n">
         <v>137.5801139476182</v>
       </c>
       <c r="R38" t="n">
-        <v>1.027783097004196</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,22 +10899,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
         <v>131.9825104815849</v>
       </c>
       <c r="L39" t="n">
-        <v>120.3824293501764</v>
+        <v>120.3824293501763</v>
       </c>
       <c r="M39" t="n">
         <v>116.626698625586</v>
       </c>
       <c r="N39" t="n">
-        <v>101.9573524286611</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>120.6530283274244</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>120.6592788752669</v>
@@ -10981,25 +10981,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11069,19 +11069,19 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N41" t="n">
-        <v>205.1555770549409</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O41" t="n">
         <v>246.758517458259</v>
       </c>
       <c r="P41" t="n">
-        <v>208.5255628951208</v>
+        <v>198.8330235577774</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
-        <v>5.382587917015222</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,19 +11139,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>170.2894608572089</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>120.3824293501764</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>116.626698625586</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>101.9573524286611</v>
       </c>
       <c r="O42" t="n">
-        <v>120.6530283274244</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>120.6592788752669</v>
@@ -11215,19 +11215,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O43" t="n">
         <v>105.6509998050918</v>
@@ -11297,10 +11297,10 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>210.0462273461148</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>270.6444670286918</v>
+        <v>269.6000767025325</v>
       </c>
       <c r="M44" t="n">
         <v>291.2847697033555</v>
@@ -11309,16 +11309,16 @@
         <v>283.4008070189657</v>
       </c>
       <c r="O44" t="n">
-        <v>210.1559461300631</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
         <v>137.5801139476182</v>
       </c>
       <c r="R44" t="n">
-        <v>42.58424007769262</v>
+        <v>1.027783097004193</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11370,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>16.7053418665793</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>131.9825104815849</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>120.3824293501764</v>
+        <v>120.3824293501763</v>
       </c>
       <c r="M45" t="n">
         <v>116.626698625586</v>
@@ -11388,16 +11388,16 @@
         <v>101.9573524286611</v>
       </c>
       <c r="O45" t="n">
-        <v>120.6530283274244</v>
+        <v>125.9314536215611</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>120.6592788752669</v>
       </c>
       <c r="Q45" t="n">
         <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11467,7 +11467,7 @@
         <v>111.3378805152112</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.4344561747824</v>
+        <v>169.4344561747825</v>
       </c>
       <c r="C11" t="n">
-        <v>145.5527131781279</v>
+        <v>140.8290435440977</v>
       </c>
       <c r="D11" t="n">
-        <v>133.1193754391763</v>
+        <v>133.1193754391764</v>
       </c>
       <c r="E11" t="n">
-        <v>84.16346696149125</v>
+        <v>84.16346696149131</v>
       </c>
       <c r="F11" t="n">
-        <v>115.8838045398686</v>
+        <v>198.5464654369626</v>
       </c>
       <c r="G11" t="n">
-        <v>157.8494120382935</v>
+        <v>214.1733032425597</v>
       </c>
       <c r="H11" t="n">
-        <v>142.2448436041343</v>
+        <v>142.2448436041344</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>35.89105811681812</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.58881163589407</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>17.7601928459346</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>116.2269994061011</v>
+        <v>116.2269994061012</v>
       </c>
       <c r="W11" t="n">
-        <v>133.2436796227159</v>
+        <v>50.58101872562204</v>
       </c>
       <c r="X11" t="n">
-        <v>155.1299300916552</v>
+        <v>72.46726919456128</v>
       </c>
       <c r="Y11" t="n">
-        <v>177.6327832153989</v>
+        <v>177.632783215399</v>
       </c>
     </row>
     <row r="12">
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.340816169499734</v>
+        <v>1.340816169499789</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.995261989190425</v>
+        <v>2.995261989190482</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>155.1050542093338</v>
+        <v>169.4344561747824</v>
       </c>
       <c r="C14" t="n">
-        <v>62.89005228103383</v>
+        <v>145.5527131781278</v>
       </c>
       <c r="D14" t="n">
         <v>133.1193754391763</v>
       </c>
       <c r="E14" t="n">
-        <v>84.16346696149117</v>
+        <v>166.8261278585852</v>
       </c>
       <c r="F14" t="n">
-        <v>198.5464654369624</v>
+        <v>115.8838045398685</v>
       </c>
       <c r="G14" t="n">
-        <v>131.5106423454656</v>
+        <v>141.3640315243993</v>
       </c>
       <c r="H14" t="n">
-        <v>142.2448436041342</v>
+        <v>142.2448436041343</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>35.891058116818</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>22.58881163589405</v>
       </c>
       <c r="T14" t="n">
-        <v>17.76019284593443</v>
+        <v>17.76019284593448</v>
       </c>
       <c r="U14" t="n">
-        <v>45.49679044823569</v>
+        <v>45.49679044823574</v>
       </c>
       <c r="V14" t="n">
         <v>116.226999406101</v>
@@ -23558,10 +23558,10 @@
         <v>133.2436796227159</v>
       </c>
       <c r="X14" t="n">
-        <v>155.1299300916551</v>
+        <v>72.46726919456117</v>
       </c>
       <c r="Y14" t="n">
-        <v>177.6327832153989</v>
+        <v>94.97012231830493</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.340816169499647</v>
+        <v>1.340816169499675</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.99526198919034</v>
+        <v>2.995261989190368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-9.237055564881302e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1191976.123875789</v>
+        <v>1191976.123875788</v>
       </c>
     </row>
     <row r="6">
@@ -26329,7 +26329,7 @@
         <v>243022.6009360973</v>
       </c>
       <c r="H2" t="n">
-        <v>243022.6009360972</v>
+        <v>243022.6009360973</v>
       </c>
       <c r="I2" t="n">
         <v>243022.6009360972</v>
@@ -26341,10 +26341,10 @@
         <v>243022.6009360973</v>
       </c>
       <c r="L2" t="n">
-        <v>243022.6009360972</v>
+        <v>243022.6009360973</v>
       </c>
       <c r="M2" t="n">
-        <v>243022.6009360974</v>
+        <v>243022.6009360975</v>
       </c>
       <c r="N2" t="n">
         <v>243022.6009360974</v>
@@ -26353,7 +26353,7 @@
         <v>243022.6009360974</v>
       </c>
       <c r="P2" t="n">
-        <v>243022.6009360972</v>
+        <v>243022.6009360974</v>
       </c>
     </row>
     <row r="3">
@@ -26375,13 +26375,13 @@
         <v>272100.1210438667</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="G3" t="n">
         <v>105208.5138763725</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105208.5138763726</v>
+        <v>105208.5138763725</v>
       </c>
       <c r="M3" t="n">
-        <v>18266.68546817846</v>
+        <v>18266.68546817857</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>503377.7457368798</v>
       </c>
       <c r="E4" t="n">
-        <v>398490.6727302946</v>
+        <v>398490.6727302945</v>
       </c>
       <c r="F4" t="n">
         <v>398490.6727302947</v>
@@ -26448,16 +26448,16 @@
         <v>471274.3445339244</v>
       </c>
       <c r="M4" t="n">
-        <v>470303.7233314325</v>
+        <v>470303.7233314326</v>
       </c>
       <c r="N4" t="n">
         <v>470303.7233314326</v>
       </c>
       <c r="O4" t="n">
-        <v>470303.7233314325</v>
+        <v>470303.7233314326</v>
       </c>
       <c r="P4" t="n">
-        <v>470303.7233314324</v>
+        <v>470303.7233314326</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24501.91760808066</v>
+        <v>24501.91760808065</v>
       </c>
       <c r="F5" t="n">
         <v>24501.91760808066</v>
@@ -26485,13 +26485,13 @@
         <v>35557.88579942161</v>
       </c>
       <c r="H5" t="n">
-        <v>35557.88579942161</v>
+        <v>35557.88579942162</v>
       </c>
       <c r="I5" t="n">
         <v>35557.88579942162</v>
       </c>
       <c r="J5" t="n">
-        <v>47597.11518397226</v>
+        <v>47597.11518397227</v>
       </c>
       <c r="K5" t="n">
         <v>47597.11518397226</v>
@@ -26500,16 +26500,16 @@
         <v>47597.11518397227</v>
       </c>
       <c r="M5" t="n">
-        <v>44490.80287720932</v>
+        <v>44490.80287720933</v>
       </c>
       <c r="N5" t="n">
         <v>44490.80287720933</v>
       </c>
       <c r="O5" t="n">
-        <v>44490.80287720932</v>
+        <v>44490.80287720933</v>
       </c>
       <c r="P5" t="n">
-        <v>44490.80287720932</v>
+        <v>44490.80287720933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-294474.0470633534</v>
+        <v>-294478.5134475586</v>
       </c>
       <c r="C6" t="n">
-        <v>-294474.0470633534</v>
+        <v>-294478.5134475586</v>
       </c>
       <c r="D6" t="n">
-        <v>-294474.0470633534</v>
+        <v>-294478.5134475586</v>
       </c>
       <c r="E6" t="n">
-        <v>-486095.4369016105</v>
+        <v>-486404.7580512055</v>
       </c>
       <c r="F6" t="n">
-        <v>-213995.3158577439</v>
+        <v>-214304.6370073391</v>
       </c>
       <c r="G6" t="n">
-        <v>-366146.3145727734</v>
+        <v>-366146.3145727733</v>
       </c>
       <c r="H6" t="n">
-        <v>-260937.8006964009</v>
+        <v>-260937.800696401</v>
       </c>
       <c r="I6" t="n">
         <v>-260937.8006964009</v>
       </c>
       <c r="J6" t="n">
-        <v>-437339.6249256372</v>
+        <v>-437339.624925637</v>
       </c>
       <c r="K6" t="n">
         <v>-275848.8587817993</v>
       </c>
       <c r="L6" t="n">
-        <v>-381057.372658172</v>
+        <v>-381057.3726581719</v>
       </c>
       <c r="M6" t="n">
-        <v>-290038.6107407229</v>
+        <v>-290038.610740723</v>
       </c>
       <c r="N6" t="n">
-        <v>-271771.9252725444</v>
+        <v>-271771.9252725445</v>
       </c>
       <c r="O6" t="n">
         <v>-336839.7943307275</v>
       </c>
       <c r="P6" t="n">
-        <v>-271771.9252725446</v>
+        <v>-271771.9252725444</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>212.8454786681945</v>
       </c>
       <c r="L2" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="M2" t="n">
         <v>235.6788355034177</v>
@@ -26722,10 +26722,10 @@
         <v>235.6788355034177</v>
       </c>
       <c r="O2" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="P2" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="F3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="G3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="H3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="I3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="J3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="K3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="L3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="M3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="N3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="O3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="P3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
     </row>
     <row r="4">
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="F4" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="G4" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="H4" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="I4" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="J4" t="n">
-        <v>451.1897323592888</v>
+        <v>451.1897323592889</v>
       </c>
       <c r="K4" t="n">
-        <v>451.1897323592888</v>
+        <v>451.1897323592889</v>
       </c>
       <c r="L4" t="n">
-        <v>451.1897323592888</v>
+        <v>451.1897323592889</v>
       </c>
       <c r="M4" t="n">
-        <v>368.5270714621949</v>
+        <v>368.527071462195</v>
       </c>
       <c r="N4" t="n">
         <v>368.527071462195</v>
@@ -26917,28 +26917,28 @@
         <v>204.6527842030509</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="G2" t="n">
         <v>131.5106423454656</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.3348363227289</v>
+        <v>81.33483632272882</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.5106423454657</v>
+        <v>131.5106423454656</v>
       </c>
       <c r="M2" t="n">
-        <v>22.83335683522307</v>
+        <v>22.83335683522321</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>368.5270714621948</v>
+        <v>368.527071462195</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,19 +27154,19 @@
         <v>204.6527842030509</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="L2" t="n">
         <v>131.5106423454656</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.3348363227289</v>
+        <v>81.33483632272882</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,16 +28111,16 @@
         <v>204.6527842030509</v>
       </c>
       <c r="J11" t="n">
-        <v>185.3304824443948</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="K11" t="n">
-        <v>5.189869058379863</v>
+        <v>87.85252995547384</v>
       </c>
       <c r="L11" t="n">
-        <v>33.56270548453553</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>204.6527842030509</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28181,28 +28181,28 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7381381529399</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="H12" t="n">
-        <v>125.6730735315877</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="I12" t="n">
         <v>113.7022601750334</v>
       </c>
       <c r="J12" t="n">
-        <v>133.5712356903773</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>54.52578705625638</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>120.3824293501763</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>116.626698625586</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>125.733386719776</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -28211,10 +28211,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>193.1065936070973</v>
+        <v>6.044035583042483</v>
       </c>
       <c r="R12" t="n">
-        <v>144.7980235204758</v>
+        <v>163.8163636610262</v>
       </c>
       <c r="S12" t="n">
         <v>191.4706822307765</v>
@@ -28248,16 +28248,16 @@
         <v>204.6527842030509</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>173.2720762328602</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="G13" t="n">
         <v>168.695353780268</v>
@@ -28272,28 +28272,28 @@
         <v>119.8563324981777</v>
       </c>
       <c r="K13" t="n">
-        <v>66.40014143752288</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="L13" t="n">
         <v>31.34583955592037</v>
       </c>
       <c r="M13" t="n">
-        <v>180.0688696815869</v>
+        <v>24.36707598317781</v>
       </c>
       <c r="N13" t="n">
-        <v>204.6527842030509</v>
+        <v>15.69057404649869</v>
       </c>
       <c r="O13" t="n">
-        <v>204.6527842030509</v>
+        <v>142.3636293323272</v>
       </c>
       <c r="P13" t="n">
-        <v>140.4855967232443</v>
+        <v>145.307188853649</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.105275865629</v>
+        <v>126.7630388368461</v>
       </c>
       <c r="R13" t="n">
-        <v>204.6527842030509</v>
+        <v>203.1862066784475</v>
       </c>
       <c r="S13" t="n">
         <v>204.6527842030509</v>
@@ -28351,7 +28351,7 @@
         <v>204.652784203051</v>
       </c>
       <c r="K14" t="n">
-        <v>73.98221878436036</v>
+        <v>204.652784203051</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28363,7 +28363,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>204.652784203051</v>
+        <v>73.31990145444841</v>
       </c>
       <c r="P14" t="n">
         <v>204.652784203051</v>
@@ -28403,37 +28403,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>204.652784203051</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>179.2148251204189</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>204.652784203051</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7381381529399</v>
+        <v>204.652784203051</v>
       </c>
       <c r="H15" t="n">
         <v>125.6730735315877</v>
       </c>
       <c r="I15" t="n">
-        <v>107.1407760227504</v>
+        <v>113.7022601750334</v>
       </c>
       <c r="J15" t="n">
-        <v>133.5712356903773</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>120.3824293501763</v>
       </c>
       <c r="M15" t="n">
         <v>116.626698625586</v>
@@ -28442,16 +28442,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>97.03852635468657</v>
+        <v>120.6530283274244</v>
       </c>
       <c r="P15" t="n">
-        <v>172.717249891886</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.044035583042486</v>
+        <v>142.1741180358727</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3183216232903</v>
+        <v>204.652784203051</v>
       </c>
       <c r="S15" t="n">
         <v>204.652784203051</v>
@@ -28485,10 +28485,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>204.652784203051</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>204.652784203051</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28497,34 +28497,34 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
+        <v>168.695353780268</v>
+      </c>
+      <c r="H16" t="n">
         <v>204.652784203051</v>
-      </c>
-      <c r="H16" t="n">
-        <v>199.1670677967341</v>
       </c>
       <c r="I16" t="n">
         <v>204.652784203051</v>
       </c>
       <c r="J16" t="n">
-        <v>141.6526168753024</v>
+        <v>204.652784203051</v>
       </c>
       <c r="K16" t="n">
-        <v>149.0628023346168</v>
+        <v>204.652784203051</v>
       </c>
       <c r="L16" t="n">
-        <v>136.6294461548476</v>
+        <v>31.34583955592037</v>
       </c>
       <c r="M16" t="n">
-        <v>140.0413362524986</v>
+        <v>24.36707598317781</v>
       </c>
       <c r="N16" t="n">
         <v>15.69057404649869</v>
       </c>
       <c r="O16" t="n">
-        <v>142.3636293323272</v>
+        <v>115.4298921222732</v>
       </c>
       <c r="P16" t="n">
-        <v>145.307188853649</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q16" t="n">
         <v>169.105275865629</v>
@@ -28582,13 +28582,13 @@
         <v>336.1634265485166</v>
       </c>
       <c r="I17" t="n">
-        <v>319.8665977261713</v>
+        <v>240.543842319869</v>
       </c>
       <c r="J17" t="n">
-        <v>267.9931433414888</v>
+        <v>249.3695949113326</v>
       </c>
       <c r="K17" t="n">
-        <v>215.2360964044946</v>
+        <v>297.8987573015886</v>
       </c>
       <c r="L17" t="n">
         <v>221.5445116161334</v>
@@ -28600,28 +28600,28 @@
         <v>205.1555770549409</v>
       </c>
       <c r="O17" t="n">
-        <v>210.1559461300631</v>
+        <v>292.8186070271571</v>
       </c>
       <c r="P17" t="n">
         <v>221.8796227892504</v>
       </c>
       <c r="Q17" t="n">
-        <v>308.6494120040981</v>
+        <v>225.986751107004</v>
       </c>
       <c r="R17" t="n">
         <v>236.7066186004219</v>
       </c>
       <c r="S17" t="n">
-        <v>227.241595838945</v>
+        <v>309.904256736039</v>
       </c>
       <c r="T17" t="n">
         <v>222.4129770489855</v>
       </c>
       <c r="U17" t="n">
-        <v>332.8122355483806</v>
+        <v>250.1495746512867</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="W17" t="n">
         <v>336.1634265485166</v>
@@ -28670,7 +28670,7 @@
         <v>131.9825104815849</v>
       </c>
       <c r="L18" t="n">
-        <v>120.3824293501764</v>
+        <v>120.3824293501763</v>
       </c>
       <c r="M18" t="n">
         <v>116.626698625586</v>
@@ -28819,13 +28819,13 @@
         <v>336.1634265485166</v>
       </c>
       <c r="I20" t="n">
-        <v>319.8665977261713</v>
+        <v>240.543842319869</v>
       </c>
       <c r="J20" t="n">
-        <v>185.3304824443948</v>
+        <v>267.9931433414888</v>
       </c>
       <c r="K20" t="n">
-        <v>297.8987573015885</v>
+        <v>215.2360964044946</v>
       </c>
       <c r="L20" t="n">
         <v>221.5445116161334</v>
@@ -28837,25 +28837,25 @@
         <v>205.1555770549409</v>
       </c>
       <c r="O20" t="n">
-        <v>292.8186070271571</v>
+        <v>210.1559461300631</v>
       </c>
       <c r="P20" t="n">
-        <v>221.8796227892504</v>
+        <v>304.5422836863444</v>
       </c>
       <c r="Q20" t="n">
-        <v>225.9867511070041</v>
+        <v>225.986751107004</v>
       </c>
       <c r="R20" t="n">
-        <v>236.7066186004219</v>
+        <v>316.0293740067242</v>
       </c>
       <c r="S20" t="n">
         <v>227.241595838945</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4129770489855</v>
+        <v>305.0756379460794</v>
       </c>
       <c r="U20" t="n">
-        <v>332.8122355483806</v>
+        <v>250.1495746512867</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -28907,7 +28907,7 @@
         <v>131.9825104815849</v>
       </c>
       <c r="L21" t="n">
-        <v>120.3824293501764</v>
+        <v>120.3824293501763</v>
       </c>
       <c r="M21" t="n">
         <v>116.626698625586</v>
@@ -29059,16 +29059,16 @@
         <v>323.206503216963</v>
       </c>
       <c r="J23" t="n">
-        <v>185.3304824443948</v>
+        <v>267.9931433414888</v>
       </c>
       <c r="K23" t="n">
-        <v>215.2360964044946</v>
+        <v>294.5588518107969</v>
       </c>
       <c r="L23" t="n">
         <v>221.5445116161334</v>
       </c>
       <c r="M23" t="n">
-        <v>290.1466336104413</v>
+        <v>207.4839727133473</v>
       </c>
       <c r="N23" t="n">
         <v>205.1555770549409</v>
@@ -29080,22 +29080,22 @@
         <v>221.8796227892504</v>
       </c>
       <c r="Q23" t="n">
-        <v>225.9867511070041</v>
+        <v>225.986751107004</v>
       </c>
       <c r="R23" t="n">
         <v>236.7066186004219</v>
       </c>
       <c r="S23" t="n">
-        <v>309.904256736039</v>
+        <v>227.241595838945</v>
       </c>
       <c r="T23" t="n">
-        <v>286.4520895159231</v>
+        <v>222.4129770489855</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1495746512867</v>
+        <v>332.8122355483807</v>
       </c>
       <c r="V23" t="n">
-        <v>336.1634265485166</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>336.1634265485166</v>
@@ -29144,7 +29144,7 @@
         <v>131.9825104815849</v>
       </c>
       <c r="L24" t="n">
-        <v>120.3824293501764</v>
+        <v>120.3824293501763</v>
       </c>
       <c r="M24" t="n">
         <v>116.626698625586</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.044035583042483</v>
       </c>
       <c r="R27" t="n">
         <v>134.3183216232903</v>
@@ -29405,19 +29405,19 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>141.981066286687</v>
+      </c>
+      <c r="V27" t="n">
         <v>212.8454786681946</v>
       </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
       <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>212.8454786681946</v>
-      </c>
-      <c r="X27" t="n">
-        <v>148.0251018697302</v>
       </c>
       <c r="Y27" t="n">
         <v>212.8454786681946</v>
@@ -29442,7 +29442,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="G28" t="n">
         <v>168.695353780268</v>
@@ -29454,7 +29454,7 @@
         <v>164.6899393962033</v>
       </c>
       <c r="J28" t="n">
-        <v>119.8563324981777</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="K28" t="n">
         <v>66.40014143752288</v>
@@ -29466,13 +29466,13 @@
         <v>24.36707598317781</v>
       </c>
       <c r="N28" t="n">
-        <v>206.3192389230646</v>
+        <v>15.69057404649869</v>
       </c>
       <c r="O28" t="n">
-        <v>36.71262952723532</v>
+        <v>60.43355178403642</v>
       </c>
       <c r="P28" t="n">
-        <v>57.82293582615035</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q28" t="n">
         <v>126.7630388368461</v>
@@ -29545,7 +29545,7 @@
         <v>212.8454786681945</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681957</v>
       </c>
       <c r="O29" t="n">
         <v>212.8454786681945</v>
@@ -29554,7 +29554,7 @@
         <v>212.8454786681945</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8454786681949</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="R29" t="n">
         <v>212.8454786681945</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.044035583042483</v>
       </c>
       <c r="R30" t="n">
         <v>134.3183216232903</v>
@@ -29642,22 +29642,22 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8454786681945</v>
+        <v>141.9810662866825</v>
       </c>
       <c r="U30" t="n">
         <v>212.8454786681945</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>212.8454786681945</v>
       </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>148.0251018697276</v>
-      </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="31">
@@ -29670,19 +29670,19 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>212.8454786681945</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>212.8454786681945</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>212.8454786681945</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>146.5732563336335</v>
+        <v>187.4654421062189</v>
       </c>
       <c r="G31" t="n">
-        <v>212.8454786681945</v>
+        <v>168.695353780268</v>
       </c>
       <c r="H31" t="n">
         <v>165.7761987305484</v>
@@ -29700,16 +29700,16 @@
         <v>31.34583955592037</v>
       </c>
       <c r="M31" t="n">
-        <v>24.36707598317781</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="N31" t="n">
         <v>15.69057404649869</v>
       </c>
       <c r="O31" t="n">
-        <v>36.71262952723532</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P31" t="n">
-        <v>57.82293582615035</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q31" t="n">
         <v>126.7630388368461</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="C32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="D32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="E32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="F32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="G32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="H32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="I32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="J32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8454786681938</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="N32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="P32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="R32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681954</v>
       </c>
       <c r="S32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="T32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="33">
@@ -29828,13 +29828,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>48.97292005934754</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29849,7 +29849,7 @@
         <v>107.1407760227504</v>
       </c>
       <c r="J33" t="n">
-        <v>51.86424478979234</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.044035583042483</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3183216232903</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.4706822307765</v>
       </c>
       <c r="T33" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X33" t="n">
-        <v>148.0251018697317</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="34">
@@ -29904,25 +29904,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.8330535449514</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>206.319238923065</v>
       </c>
       <c r="D34" t="n">
-        <v>212.8454786681946</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>212.8454786681946</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>212.8454786681946</v>
+        <v>168.695353780268</v>
       </c>
       <c r="H34" t="n">
-        <v>212.8454786681946</v>
+        <v>165.7761987305484</v>
       </c>
       <c r="I34" t="n">
         <v>164.6899393962033</v>
@@ -29940,13 +29940,13 @@
         <v>24.36707598317781</v>
       </c>
       <c r="N34" t="n">
-        <v>15.69057404649869</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="O34" t="n">
-        <v>36.71262952723532</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P34" t="n">
-        <v>57.82293582615035</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q34" t="n">
         <v>126.7630388368461</v>
@@ -29955,25 +29955,25 @@
         <v>203.1862066784475</v>
       </c>
       <c r="S34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="T34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="35">
@@ -30007,13 +30007,13 @@
         <v>235.6788355034177</v>
       </c>
       <c r="J35" t="n">
-        <v>75.75587581289102</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="K35" t="n">
         <v>235.6788355034177</v>
       </c>
       <c r="L35" t="n">
-        <v>221.5445116161334</v>
+        <v>192.2020208249569</v>
       </c>
       <c r="M35" t="n">
         <v>235.6788355034177</v>
@@ -30028,10 +30028,10 @@
         <v>235.6788355034177</v>
       </c>
       <c r="Q35" t="n">
-        <v>200.8005363894949</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="R35" t="n">
-        <v>235.6788355034177</v>
+        <v>194.1223785227293</v>
       </c>
       <c r="S35" t="n">
         <v>235.6788355034177</v>
@@ -30080,13 +30080,13 @@
         <v>148.7381381529399</v>
       </c>
       <c r="H36" t="n">
-        <v>163.9800239072115</v>
+        <v>125.6730735315877</v>
       </c>
       <c r="I36" t="n">
-        <v>113.7022601750334</v>
+        <v>107.1407760227504</v>
       </c>
       <c r="J36" t="n">
-        <v>133.5712356903773</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,10 +30107,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>142.1741180358727</v>
+        <v>6.044035583042483</v>
       </c>
       <c r="R36" t="n">
-        <v>163.8163636610262</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S36" t="n">
         <v>191.4706822307765</v>
@@ -30147,10 +30147,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>145.1826502507107</v>
+        <v>170.5958084574028</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
@@ -30165,13 +30165,13 @@
         <v>164.6899393962033</v>
       </c>
       <c r="J37" t="n">
-        <v>213.57236476565</v>
+        <v>119.8563324981777</v>
       </c>
       <c r="K37" t="n">
         <v>66.40014143752288</v>
       </c>
       <c r="L37" t="n">
-        <v>31.34583955592037</v>
+        <v>136.6294461548476</v>
       </c>
       <c r="M37" t="n">
         <v>24.36707598317781</v>
@@ -30180,10 +30180,10 @@
         <v>15.69057404649869</v>
       </c>
       <c r="O37" t="n">
-        <v>36.71262952723532</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P37" t="n">
-        <v>57.82293582615035</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q37" t="n">
         <v>126.7630388368461</v>
@@ -30195,7 +30195,7 @@
         <v>235.3435685609305</v>
       </c>
       <c r="T37" t="n">
-        <v>235.6788355034177</v>
+        <v>223.7383953681803</v>
       </c>
       <c r="U37" t="n">
         <v>235.6788355034177</v>
@@ -30207,7 +30207,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="X37" t="n">
-        <v>235.6788355034177</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
         <v>217.1412728141684</v>
@@ -30244,7 +30244,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="J38" t="n">
-        <v>179.4854668648723</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="K38" t="n">
         <v>235.6788355034177</v>
@@ -30253,13 +30253,13 @@
         <v>235.6788355034177</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="N38" t="n">
-        <v>235.6788355034177</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>235.6788355034177</v>
+        <v>9.956845387847443</v>
       </c>
       <c r="P38" t="n">
         <v>235.6788355034177</v>
@@ -30271,7 +30271,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="S38" t="n">
-        <v>235.6788355034177</v>
+        <v>227.241595838945</v>
       </c>
       <c r="T38" t="n">
         <v>235.6788355034177</v>
@@ -30311,7 +30311,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>197.1303894955522</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7381381529399</v>
@@ -30323,7 +30323,7 @@
         <v>113.7022601750334</v>
       </c>
       <c r="J39" t="n">
-        <v>133.5712356903773</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30335,10 +30335,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>101.9573524286611</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>120.6530283274244</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -30350,7 +30350,7 @@
         <v>163.8163636610262</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4706822307765</v>
+        <v>229.7776326064003</v>
       </c>
       <c r="T39" t="n">
         <v>214.9448597913225</v>
@@ -30387,7 +30387,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>191.1893569372404</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -30396,34 +30396,34 @@
         <v>168.695353780268</v>
       </c>
       <c r="H40" t="n">
+        <v>165.7761987305484</v>
+      </c>
+      <c r="I40" t="n">
         <v>235.6788355034177</v>
       </c>
-      <c r="I40" t="n">
-        <v>164.6899393962033</v>
-      </c>
       <c r="J40" t="n">
-        <v>141.6526168753024</v>
+        <v>171.5420105767236</v>
       </c>
       <c r="K40" t="n">
-        <v>66.40014143752288</v>
+        <v>135.5701020288577</v>
       </c>
       <c r="L40" t="n">
         <v>136.6294461548476</v>
       </c>
       <c r="M40" t="n">
-        <v>24.36707598317781</v>
+        <v>140.0413362524986</v>
       </c>
       <c r="N40" t="n">
-        <v>15.69057404649869</v>
+        <v>127.0284545617099</v>
       </c>
       <c r="O40" t="n">
         <v>142.3636293323272</v>
       </c>
       <c r="P40" t="n">
-        <v>57.82293582615035</v>
+        <v>145.307188853649</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.105275865629</v>
+        <v>126.7630388368461</v>
       </c>
       <c r="R40" t="n">
         <v>203.1862066784475</v>
@@ -30447,7 +30447,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.1412728141684</v>
+        <v>235.6788355034177</v>
       </c>
     </row>
     <row r="41">
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="C41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="D41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="E41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="F41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="G41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="H41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="I41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="J41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="K41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="L41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="M41" t="n">
-        <v>235.6788355034176</v>
+        <v>139.168398882626</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="O41" t="n">
-        <v>183.9175085620842</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>235.6788355034176</v>
+        <v>23.046599231473</v>
       </c>
       <c r="Q41" t="n">
-        <v>225.9867511070041</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="R41" t="n">
-        <v>231.3240306834066</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="S41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="T41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="U41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="W41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="X41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="Y41" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
     </row>
     <row r="42">
@@ -30554,7 +30554,7 @@
         <v>148.7381381529399</v>
       </c>
       <c r="H42" t="n">
-        <v>125.6730735315877</v>
+        <v>163.9800239072115</v>
       </c>
       <c r="I42" t="n">
         <v>113.7022601750334</v>
@@ -30563,19 +30563,19 @@
         <v>133.5712356903773</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>131.9825104815849</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>120.3824293501763</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>116.626698625586</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>120.6530283274244</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -30593,13 +30593,13 @@
         <v>214.9448597913225</v>
       </c>
       <c r="U42" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V42" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="W42" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30615,13 +30615,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.6788355034176</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>206.5365879101461</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -30633,31 +30633,31 @@
         <v>168.695353780268</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7761987305484</v>
+        <v>179.2253924650805</v>
       </c>
       <c r="I43" t="n">
         <v>164.6899393962033</v>
       </c>
       <c r="J43" t="n">
-        <v>119.8563324981777</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="K43" t="n">
-        <v>66.40014143752288</v>
+        <v>135.5701020288577</v>
       </c>
       <c r="L43" t="n">
-        <v>136.6294461548476</v>
+        <v>31.34583955592037</v>
       </c>
       <c r="M43" t="n">
         <v>140.0413362524986</v>
       </c>
       <c r="N43" t="n">
-        <v>127.0284545617099</v>
+        <v>15.69057404649869</v>
       </c>
       <c r="O43" t="n">
-        <v>36.71262952723532</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P43" t="n">
-        <v>57.82293582615035</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q43" t="n">
         <v>169.105275865629</v>
@@ -30669,16 +30669,16 @@
         <v>235.3435685609305</v>
       </c>
       <c r="T43" t="n">
-        <v>223.7383953681803</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="U43" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V43" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="W43" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="C44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="D44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="E44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="F44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="G44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="H44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="I44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="J44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="K44" t="n">
-        <v>175.7709702108231</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="L44" t="n">
-        <v>235.6788355034176</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="N44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="P44" t="n">
-        <v>221.8796227892504</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="Q44" t="n">
-        <v>235.6788355034176</v>
+        <v>191.1937960452057</v>
       </c>
       <c r="R44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="S44" t="n">
-        <v>235.6788355034176</v>
+        <v>227.241595838945</v>
       </c>
       <c r="T44" t="n">
-        <v>235.6788355034176</v>
+        <v>222.4129770489855</v>
       </c>
       <c r="U44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="W44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="X44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="Y44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
     </row>
     <row r="45">
@@ -30794,13 +30794,13 @@
         <v>125.6730735315877</v>
       </c>
       <c r="I45" t="n">
-        <v>113.7022601750334</v>
+        <v>107.1407760227504</v>
       </c>
       <c r="J45" t="n">
-        <v>116.865893823798</v>
+        <v>133.5712356903773</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>131.9825104815849</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -30815,34 +30815,34 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>158.966229250891</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.044035583042486</v>
+        <v>6.044035583042483</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3183216232903</v>
+        <v>163.8163636610262</v>
       </c>
       <c r="S45" t="n">
         <v>191.4706822307765</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9448597913225</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="U45" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V45" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="W45" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>235.6788355034177</v>
       </c>
     </row>
     <row r="46">
@@ -30876,7 +30876,7 @@
         <v>164.6899393962033</v>
       </c>
       <c r="J46" t="n">
-        <v>141.6526168753024</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="K46" t="n">
         <v>135.5701020288577</v>
@@ -30891,31 +30891,31 @@
         <v>15.69057404649869</v>
       </c>
       <c r="O46" t="n">
-        <v>235.6788355034176</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P46" t="n">
         <v>145.307188853649</v>
       </c>
       <c r="Q46" t="n">
-        <v>195.2059221924235</v>
+        <v>169.105275865629</v>
       </c>
       <c r="R46" t="n">
-        <v>203.1862066784475</v>
+        <v>216.3001334704925</v>
       </c>
       <c r="S46" t="n">
-        <v>235.3435685609305</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7383953681803</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="U46" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V46" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="W46" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H11" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I11" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J11" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K11" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L11" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M11" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N11" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O11" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P11" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q11" t="n">
         <v>45.22619053982432</v>
@@ -31786,7 +31786,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S11" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T11" t="n">
         <v>1.83331735100259</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H12" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I12" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J12" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K12" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L12" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M12" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N12" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O12" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P12" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q12" t="n">
         <v>28.60364634907357</v>
@@ -31865,10 +31865,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S12" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U12" t="n">
         <v>0.01474212119420367</v>
@@ -31932,22 +31932,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O13" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P13" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R13" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S13" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U13" t="n">
         <v>0.01024698260056125</v>
@@ -31987,34 +31987,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H14" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I14" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J14" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K14" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L14" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M14" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N14" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O14" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P14" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q14" t="n">
         <v>45.22619053982432</v>
@@ -32023,7 +32023,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S14" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T14" t="n">
         <v>1.83331735100259</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H15" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I15" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J15" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K15" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L15" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M15" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N15" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O15" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P15" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q15" t="n">
         <v>28.60364634907357</v>
@@ -32102,10 +32102,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S15" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U15" t="n">
         <v>0.01474212119420367</v>
@@ -32169,22 +32169,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O16" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P16" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R16" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S16" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U16" t="n">
         <v>0.01024698260056125</v>
@@ -32224,34 +32224,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H17" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I17" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J17" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K17" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L17" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M17" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N17" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O17" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P17" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q17" t="n">
         <v>45.22619053982432</v>
@@ -32260,7 +32260,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S17" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T17" t="n">
         <v>1.83331735100259</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H18" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I18" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J18" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K18" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L18" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M18" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N18" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O18" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P18" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q18" t="n">
         <v>28.60364634907357</v>
@@ -32339,10 +32339,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S18" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U18" t="n">
         <v>0.01474212119420367</v>
@@ -32406,22 +32406,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O19" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P19" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R19" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S19" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U19" t="n">
         <v>0.01024698260056125</v>
@@ -32461,34 +32461,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H20" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I20" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J20" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K20" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L20" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M20" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N20" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O20" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P20" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q20" t="n">
         <v>45.22619053982432</v>
@@ -32497,7 +32497,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S20" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T20" t="n">
         <v>1.83331735100259</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H21" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I21" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J21" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K21" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L21" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M21" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N21" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O21" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P21" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q21" t="n">
         <v>28.60364634907357</v>
@@ -32576,10 +32576,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S21" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U21" t="n">
         <v>0.01474212119420367</v>
@@ -32643,22 +32643,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O22" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P22" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R22" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S22" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U22" t="n">
         <v>0.01024698260056125</v>
@@ -32698,34 +32698,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H23" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I23" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J23" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K23" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L23" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M23" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N23" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O23" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P23" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q23" t="n">
         <v>45.22619053982432</v>
@@ -32734,7 +32734,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S23" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T23" t="n">
         <v>1.83331735100259</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H24" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I24" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J24" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K24" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L24" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M24" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N24" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O24" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P24" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q24" t="n">
         <v>28.60364634907357</v>
@@ -32813,10 +32813,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S24" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U24" t="n">
         <v>0.01474212119420367</v>
@@ -32880,22 +32880,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O25" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P25" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R25" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S25" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U25" t="n">
         <v>0.01024698260056125</v>
@@ -32935,34 +32935,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H26" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I26" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J26" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K26" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L26" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M26" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N26" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O26" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P26" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q26" t="n">
         <v>45.22619053982432</v>
@@ -32971,7 +32971,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S26" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T26" t="n">
         <v>1.83331735100259</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H27" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I27" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J27" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K27" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L27" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M27" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N27" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O27" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P27" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q27" t="n">
         <v>28.60364634907357</v>
@@ -33050,10 +33050,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S27" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U27" t="n">
         <v>0.01474212119420367</v>
@@ -33117,22 +33117,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O28" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P28" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R28" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S28" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U28" t="n">
         <v>0.01024698260056125</v>
@@ -33172,34 +33172,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H29" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I29" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J29" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K29" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L29" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M29" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N29" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O29" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P29" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q29" t="n">
         <v>45.22619053982432</v>
@@ -33208,7 +33208,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S29" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T29" t="n">
         <v>1.83331735100259</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H30" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I30" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J30" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K30" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L30" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M30" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N30" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O30" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P30" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q30" t="n">
         <v>28.60364634907357</v>
@@ -33287,10 +33287,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S30" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U30" t="n">
         <v>0.01474212119420367</v>
@@ -33354,22 +33354,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O31" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P31" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R31" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S31" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U31" t="n">
         <v>0.01024698260056125</v>
@@ -33409,34 +33409,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H32" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I32" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J32" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K32" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L32" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M32" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N32" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O32" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P32" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q32" t="n">
         <v>45.22619053982432</v>
@@ -33445,7 +33445,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S32" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T32" t="n">
         <v>1.83331735100259</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H33" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I33" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J33" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K33" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L33" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M33" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N33" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O33" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P33" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q33" t="n">
         <v>28.60364634907357</v>
@@ -33524,10 +33524,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S33" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U33" t="n">
         <v>0.01474212119420367</v>
@@ -33591,22 +33591,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O34" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P34" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R34" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S34" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U34" t="n">
         <v>0.01024698260056125</v>
@@ -33646,34 +33646,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H35" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I35" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J35" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K35" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L35" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M35" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N35" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O35" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P35" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q35" t="n">
         <v>45.22619053982432</v>
@@ -33682,7 +33682,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S35" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T35" t="n">
         <v>1.83331735100259</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H36" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I36" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J36" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K36" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L36" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M36" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N36" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O36" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P36" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q36" t="n">
         <v>28.60364634907357</v>
@@ -33761,10 +33761,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S36" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U36" t="n">
         <v>0.01474212119420367</v>
@@ -33828,22 +33828,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O37" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P37" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R37" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S37" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U37" t="n">
         <v>0.01024698260056125</v>
@@ -33883,34 +33883,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H38" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I38" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J38" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K38" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L38" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M38" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N38" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O38" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P38" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q38" t="n">
         <v>45.22619053982432</v>
@@ -33919,7 +33919,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S38" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T38" t="n">
         <v>1.83331735100259</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H39" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I39" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J39" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K39" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L39" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M39" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N39" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O39" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P39" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q39" t="n">
         <v>28.60364634907357</v>
@@ -33998,10 +33998,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S39" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U39" t="n">
         <v>0.01474212119420367</v>
@@ -34065,22 +34065,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O40" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P40" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R40" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S40" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U40" t="n">
         <v>0.01024698260056125</v>
@@ -34120,34 +34120,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H41" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I41" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J41" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K41" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L41" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M41" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N41" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O41" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P41" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q41" t="n">
         <v>45.22619053982432</v>
@@ -34156,7 +34156,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S41" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T41" t="n">
         <v>1.83331735100259</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H42" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I42" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J42" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K42" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L42" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M42" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N42" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O42" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P42" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q42" t="n">
         <v>28.60364634907357</v>
@@ -34235,10 +34235,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S42" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U42" t="n">
         <v>0.01474212119420367</v>
@@ -34302,22 +34302,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O43" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P43" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R43" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S43" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U43" t="n">
         <v>0.01024698260056125</v>
@@ -34357,34 +34357,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H44" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I44" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J44" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K44" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L44" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M44" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N44" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O44" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P44" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q44" t="n">
         <v>45.22619053982432</v>
@@ -34393,7 +34393,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S44" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T44" t="n">
         <v>1.83331735100259</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H45" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I45" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J45" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K45" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L45" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M45" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N45" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O45" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P45" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q45" t="n">
         <v>28.60364634907357</v>
@@ -34472,10 +34472,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S45" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U45" t="n">
         <v>0.01474212119420367</v>
@@ -34539,22 +34539,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O46" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P46" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R46" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S46" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U46" t="n">
         <v>0.01024698260056125</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>19.32230175865602</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="L11" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>78.24522996402479</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>60.00045364764625</v>
       </c>
       <c r="R11" t="n">
-        <v>1.077525442277498</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35465,7 +35465,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>17.13463267868494</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -35477,10 +35477,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>55.91464605011092</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>78.9797106714632</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>82.66266089709396</v>
+        <v>23.77603429111489</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,10 +35507,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>10.4797018971855</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35541,19 +35541,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.03586353808285</v>
+        <v>27.03586353808276</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6.814895260887814</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>59.47013395234015</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>62.97664299082587</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>65.72590198460421</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35568,28 +35568,28 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>69.08268217419314</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>40.02753342908836</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>77.62432964134101</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>62.28915487072378</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.466577524603482</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>82.66266089709396</v>
+        <v>19.32230175865614</v>
       </c>
       <c r="K14" t="n">
-        <v>68.79234972598049</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>82.66266089709396</v>
+        <v>49.47004796732443</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="Q14" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>10.53040568032177</v>
+        <v>10.53040568032172</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35699,22 +35699,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.90228980538529</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>20.04251004384033</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>45.82934508312263</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>55.91464605011103</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,16 +35741,16 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>52.05797101661908</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>40.83642054202475</v>
       </c>
       <c r="S15" t="n">
-        <v>13.18210197227456</v>
+        <v>13.1821019722745</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -35781,10 +35781,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>38.19560323107868</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>59.47013395234032</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35793,19 +35793,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>35.95743042278302</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>33.39086906618572</v>
+        <v>38.87658547250258</v>
       </c>
       <c r="I16" t="n">
-        <v>39.96284480684771</v>
+        <v>39.96284480684765</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>63.00016732774852</v>
       </c>
       <c r="K16" t="n">
-        <v>82.66266089709396</v>
+        <v>69.08268217419325</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>78.71726259503785</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35826,7 +35826,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.466577524603567</v>
+        <v>1.466577524603512</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35878,13 +35878,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>79.32275540630228</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>82.66266089709396</v>
+        <v>64.03911246693777</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35896,28 +35896,28 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>15.28364293936454</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,13 +36115,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>79.32275540630228</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="K20" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36133,25 +36133,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>79.32275540630231</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="U20" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36355,43 +36355,43 @@
         <v>82.66266089709399</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>79.32275540630231</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>82.66266089709399</v>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>82.66266089709399</v>
-      </c>
-      <c r="T23" t="n">
-        <v>64.03911246693769</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>15.2836429393646</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36610,10 +36610,10 @@
         <v>249.4480499963904</v>
       </c>
       <c r="P26" t="n">
-        <v>199.4914187740649</v>
+        <v>199.491418774065</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.4388415088087</v>
+        <v>124.4388415088088</v>
       </c>
       <c r="R26" t="n">
         <v>18.72310014546531</v>
@@ -36677,19 +36677,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>18.2072040785216</v>
+        <v>119.9221144064652</v>
       </c>
       <c r="M27" t="n">
         <v>185.150182684414</v>
       </c>
       <c r="N27" t="n">
-        <v>208.6565061459615</v>
+        <v>208.6565061459616</v>
       </c>
       <c r="O27" t="n">
-        <v>134.5697545638963</v>
+        <v>118.5594394393657</v>
       </c>
       <c r="P27" t="n">
-        <v>85.70459520341234</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36738,7 +36738,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>73.91859644974792</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>92.98914617001684</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>190.6286648765659</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>23.7209222568011</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0896028553035</v>
+        <v>137.0896028553034</v>
       </c>
       <c r="K29" t="n">
         <v>207.6556096098146</v>
@@ -36838,10 +36838,10 @@
         <v>261.9454340807529</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6462756582027</v>
+        <v>296.6462756582026</v>
       </c>
       <c r="N29" t="n">
-        <v>291.0907086322193</v>
+        <v>291.0907086322205</v>
       </c>
       <c r="O29" t="n">
         <v>249.4480499963903</v>
@@ -36850,10 +36850,10 @@
         <v>199.4914187740648</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.4388415088091</v>
+        <v>124.4388415088087</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72310014546523</v>
+        <v>18.72310014546521</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>119.9221144064652</v>
       </c>
       <c r="M30" t="n">
-        <v>185.150182684414</v>
+        <v>129.7489044573224</v>
       </c>
       <c r="N30" t="n">
-        <v>208.6565061459615</v>
+        <v>208.6565061459616</v>
       </c>
       <c r="O30" t="n">
-        <v>79.16847633680196</v>
+        <v>134.5697545638963</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36966,19 +36966,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>46.38829769622214</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>67.66282841748378</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>71.1693374559695</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>7.646374115186815</v>
+        <v>48.53855988777222</v>
       </c>
       <c r="G31" t="n">
-        <v>44.15012488792648</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>188.4784026850166</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0896028553036</v>
+        <v>137.0896028553035</v>
       </c>
       <c r="K32" t="n">
         <v>207.6556096098147</v>
@@ -37075,22 +37075,22 @@
         <v>261.945434080753</v>
       </c>
       <c r="M32" t="n">
-        <v>296.6462756582019</v>
+        <v>296.6462756582027</v>
       </c>
       <c r="N32" t="n">
-        <v>291.0907086322194</v>
+        <v>291.0907086322193</v>
       </c>
       <c r="O32" t="n">
         <v>249.4480499963904</v>
       </c>
       <c r="P32" t="n">
-        <v>199.491418774065</v>
+        <v>199.4914187740649</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.4388415088088</v>
+        <v>124.4388415088087</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72310014546535</v>
+        <v>18.72310014546615</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>18.20720407851999</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>119.9221144064652</v>
       </c>
       <c r="M33" t="n">
-        <v>185.150182684414</v>
+        <v>83.43527235647562</v>
       </c>
       <c r="N33" t="n">
-        <v>208.6565061459615</v>
+        <v>208.6565061459616</v>
       </c>
       <c r="O33" t="n">
         <v>134.5697545638963</v>
@@ -37200,25 +37200,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.216132879983275</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>39.86205795109264</v>
       </c>
       <c r="D34" t="n">
-        <v>67.66282841748389</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>73.91859644974795</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>44.15012488792659</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.06927993764621</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>197.1549046216958</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>50.34835305902284</v>
       </c>
       <c r="K35" t="n">
         <v>230.4889664450378</v>
@@ -37318,19 +37318,19 @@
         <v>313.9240654674425</v>
       </c>
       <c r="O35" t="n">
-        <v>272.2814068316135</v>
+        <v>153.677213626285</v>
       </c>
       <c r="P35" t="n">
-        <v>222.324775609288</v>
+        <v>222.3247756092881</v>
       </c>
       <c r="Q35" t="n">
-        <v>79.01635819772594</v>
+        <v>147.2721983440319</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.437239664472669</v>
+        <v>8.437239664472671</v>
       </c>
       <c r="T35" t="n">
         <v>13.26585845443222</v>
@@ -37376,19 +37376,19 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>38.30695037562388</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37443,10 +37443,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>25.41315820669205</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>94.00269429119268</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.71603226747226</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>11.94044013523735</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37503,7 +37503,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>13.75938009517515</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -37540,34 +37540,34 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>103.7295910519812</v>
+        <v>159.9229596905267</v>
       </c>
       <c r="K38" t="n">
-        <v>20.44273909892305</v>
+        <v>230.4889664450378</v>
       </c>
       <c r="L38" t="n">
         <v>284.7787909159761</v>
       </c>
       <c r="M38" t="n">
-        <v>83.80079699000818</v>
+        <v>319.4796324934259</v>
       </c>
       <c r="N38" t="n">
-        <v>313.9240654674425</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>272.2814068316135</v>
+        <v>40.12866423003141</v>
       </c>
       <c r="P38" t="n">
-        <v>211.2856163445575</v>
+        <v>222.3247756092881</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.2721983440318</v>
+        <v>147.2721983440319</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>41.55645698068842</v>
       </c>
       <c r="S38" t="n">
-        <v>8.437239664472669</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>13.26585845443222</v>
@@ -37607,46 +37607,46 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
         <v>38.30695037562388</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>49.51321572501544</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37692,13 +37692,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>69.90263677286929</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>70.98889610721436</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>29.88939370142111</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37743,7 +37743,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>18.53756268924926</v>
       </c>
     </row>
     <row r="41">
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>159.9229596905266</v>
+        <v>159.9229596905267</v>
       </c>
       <c r="K41" t="n">
         <v>230.4889664450378</v>
       </c>
       <c r="L41" t="n">
-        <v>284.7787909159761</v>
+        <v>284.7787909159762</v>
       </c>
       <c r="M41" t="n">
-        <v>319.4796324934258</v>
+        <v>222.9691958726341</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>313.9240654674425</v>
       </c>
       <c r="O41" t="n">
-        <v>220.52007989028</v>
+        <v>36.60257132819585</v>
       </c>
       <c r="P41" t="n">
-        <v>222.324775609288</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>147.2721983440319</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>41.55645698068845</v>
       </c>
       <c r="S41" t="n">
-        <v>8.437239664472612</v>
+        <v>8.437239664472699</v>
       </c>
       <c r="T41" t="n">
-        <v>13.26585845443216</v>
+        <v>13.26585845443225</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37850,7 +37850,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>38.30695037562379</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.30695037562405</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37911,13 +37911,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>58.06191483844952</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>61.35393765943538</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37929,13 +37929,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>13.44919373453207</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>94.02621862811525</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37965,7 +37965,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>11.94044013523738</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>159.9229596905266</v>
+        <v>159.9229596905267</v>
       </c>
       <c r="K44" t="n">
-        <v>170.5811011524432</v>
+        <v>20.44273909892306</v>
       </c>
       <c r="L44" t="n">
-        <v>284.7787909159761</v>
+        <v>48.05556508639914</v>
       </c>
       <c r="M44" t="n">
-        <v>319.4796324934258</v>
+        <v>319.4796324934259</v>
       </c>
       <c r="N44" t="n">
-        <v>313.9240654674424</v>
+        <v>313.9240654674425</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>272.2814068316135</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>222.3247756092881</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.2721983440318</v>
+        <v>102.7871588858199</v>
       </c>
       <c r="R44" t="n">
-        <v>41.55645698068836</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>8.437239664472612</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>13.26585845443216</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>5.278425294136691</v>
       </c>
       <c r="P45" t="n">
-        <v>38.30695037562405</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38123,7 +38123,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>20.73397571209514</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -38138,7 +38138,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>12.29454936939206</v>
       </c>
     </row>
     <row r="46">
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>94.02621862811522</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38187,22 +38187,22 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>93.31520617109045</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.10064632679444</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>13.11392679204501</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.3352669424871761</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>11.94044013523735</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
